--- a/nr-update/ig/all-profiles.xlsx
+++ b/nr-update/ig/all-profiles.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-24T13:25:54+00:00</t>
+    <t>2025-07-24T13:38:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-update/ig/all-profiles.xlsx
+++ b/nr-update/ig/all-profiles.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-24T13:38:04+00:00</t>
+    <t>2025-07-24T13:40:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-update/ig/all-profiles.xlsx
+++ b/nr-update/ig/all-profiles.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-24T13:40:14+00:00</t>
+    <t>2025-07-24T13:39:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-update/ig/all-profiles.xlsx
+++ b/nr-update/ig/all-profiles.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-24T13:39:58+00:00</t>
+    <t>2025-07-24T13:47:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-update/ig/all-profiles.xlsx
+++ b/nr-update/ig/all-profiles.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10743" uniqueCount="695">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10744" uniqueCount="695">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-24T13:47:13+00:00</t>
+    <t>2025-07-24T13:47:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -2838,7 +2838,9 @@
       <c r="A76" t="s" s="2">
         <v>21</v>
       </c>
-      <c r="B76" s="2"/>
+      <c r="B76" t="s" s="2">
+        <v>163</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">

--- a/nr-update/ig/all-profiles.xlsx
+++ b/nr-update/ig/all-profiles.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-24T13:47:46+00:00</t>
+    <t>2025-07-24T13:49:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-update/ig/all-profiles.xlsx
+++ b/nr-update/ig/all-profiles.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-24T13:49:36+00:00</t>
+    <t>2025-07-24T13:51:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-update/ig/all-profiles.xlsx
+++ b/nr-update/ig/all-profiles.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-24T13:51:56+00:00</t>
+    <t>2025-07-24T14:03:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-update/ig/all-profiles.xlsx
+++ b/nr-update/ig/all-profiles.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10744" uniqueCount="695">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10840" uniqueCount="702">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-24T14:03:43+00:00</t>
+    <t>2025-07-25T12:19:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1302,6 +1302,16 @@
     <t>Date à laquelle le niveau de formation n’est plus actif (non visible hormis dans les données historisées). Cette date est renseignée par l’ordre à la clôture de l’exercice professionnel.</t>
   </si>
   <si>
+    <t>ExerciceProfessionnel.professionnel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(https://interop.esante.gouv.fr/ig/fhir/mos/StructureDefinition/Professionnel)
+</t>
+  </si>
+  <si>
+    <t>Lien vers la classe Professionnel.</t>
+  </si>
+  <si>
     <t>FonctionQualifiee</t>
   </si>
   <si>
@@ -1948,6 +1958,16 @@
     <t>Boîte(s) aux lettres du service de messagerie sécurisée de santé (MSS) rattachée(s) à la situation d'exercice.</t>
   </si>
   <si>
+    <t>SituationExercice.exerciceProfessionnel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(https://interop.esante.gouv.fr/ig/fhir/mos/StructureDefinition/ExerciceProfessionnel)
+</t>
+  </si>
+  <si>
+    <t>Lien vers la classe ExerciceProfessionnel.</t>
+  </si>
+  <si>
     <t>SituationOperationnelle</t>
   </si>
   <si>
@@ -2013,6 +2033,9 @@
   </si>
   <si>
     <t>Adresse de télécommunication du professionnel dans le cadre de l'offre décrite.</t>
+  </si>
+  <si>
+    <t>SituationOperationnelle.exerciceProfessionnel</t>
   </si>
   <si>
     <t>Specialite</t>
@@ -5955,7 +5978,7 @@
         <v>2</v>
       </c>
       <c r="B485" t="s" s="2">
-        <v>426</v>
+        <v>429</v>
       </c>
     </row>
     <row r="486">
@@ -5963,7 +5986,7 @@
         <v>4</v>
       </c>
       <c r="B486" t="s" s="2">
-        <v>427</v>
+        <v>430</v>
       </c>
     </row>
     <row r="487">
@@ -5979,7 +6002,7 @@
         <v>8</v>
       </c>
       <c r="B488" t="s" s="2">
-        <v>426</v>
+        <v>429</v>
       </c>
     </row>
     <row r="489">
@@ -5987,7 +6010,7 @@
         <v>9</v>
       </c>
       <c r="B489" t="s" s="2">
-        <v>426</v>
+        <v>429</v>
       </c>
     </row>
     <row r="490">
@@ -6075,7 +6098,7 @@
         <v>29</v>
       </c>
       <c r="B501" t="s" s="2">
-        <v>427</v>
+        <v>430</v>
       </c>
     </row>
     <row r="502">
@@ -6115,7 +6138,7 @@
         <v>2</v>
       </c>
       <c r="B506" t="s" s="2">
-        <v>435</v>
+        <v>438</v>
       </c>
     </row>
     <row r="507">
@@ -6123,7 +6146,7 @@
         <v>4</v>
       </c>
       <c r="B507" t="s" s="2">
-        <v>436</v>
+        <v>439</v>
       </c>
     </row>
     <row r="508">
@@ -6139,7 +6162,7 @@
         <v>8</v>
       </c>
       <c r="B509" t="s" s="2">
-        <v>435</v>
+        <v>438</v>
       </c>
     </row>
     <row r="510">
@@ -6147,7 +6170,7 @@
         <v>9</v>
       </c>
       <c r="B510" t="s" s="2">
-        <v>435</v>
+        <v>438</v>
       </c>
     </row>
     <row r="511">
@@ -6235,7 +6258,7 @@
         <v>29</v>
       </c>
       <c r="B522" t="s" s="2">
-        <v>436</v>
+        <v>439</v>
       </c>
     </row>
     <row r="523">
@@ -6275,7 +6298,7 @@
         <v>2</v>
       </c>
       <c r="B527" t="s" s="2">
-        <v>445</v>
+        <v>448</v>
       </c>
     </row>
     <row r="528">
@@ -6283,7 +6306,7 @@
         <v>4</v>
       </c>
       <c r="B528" t="s" s="2">
-        <v>446</v>
+        <v>449</v>
       </c>
     </row>
     <row r="529">
@@ -6299,7 +6322,7 @@
         <v>8</v>
       </c>
       <c r="B530" t="s" s="2">
-        <v>445</v>
+        <v>448</v>
       </c>
     </row>
     <row r="531">
@@ -6307,7 +6330,7 @@
         <v>9</v>
       </c>
       <c r="B531" t="s" s="2">
-        <v>445</v>
+        <v>448</v>
       </c>
     </row>
     <row r="532">
@@ -6395,7 +6418,7 @@
         <v>29</v>
       </c>
       <c r="B543" t="s" s="2">
-        <v>446</v>
+        <v>449</v>
       </c>
     </row>
     <row r="544">
@@ -6435,7 +6458,7 @@
         <v>2</v>
       </c>
       <c r="B548" t="s" s="2">
-        <v>474</v>
+        <v>477</v>
       </c>
     </row>
     <row r="549">
@@ -6443,7 +6466,7 @@
         <v>4</v>
       </c>
       <c r="B549" t="s" s="2">
-        <v>475</v>
+        <v>478</v>
       </c>
     </row>
     <row r="550">
@@ -6459,7 +6482,7 @@
         <v>8</v>
       </c>
       <c r="B551" t="s" s="2">
-        <v>474</v>
+        <v>477</v>
       </c>
     </row>
     <row r="552">
@@ -6467,7 +6490,7 @@
         <v>9</v>
       </c>
       <c r="B552" t="s" s="2">
-        <v>474</v>
+        <v>477</v>
       </c>
     </row>
     <row r="553">
@@ -6555,7 +6578,7 @@
         <v>29</v>
       </c>
       <c r="B564" t="s" s="2">
-        <v>475</v>
+        <v>478</v>
       </c>
     </row>
     <row r="565">
@@ -6595,7 +6618,7 @@
         <v>2</v>
       </c>
       <c r="B569" t="s" s="2">
-        <v>482</v>
+        <v>485</v>
       </c>
     </row>
     <row r="570">
@@ -6603,7 +6626,7 @@
         <v>4</v>
       </c>
       <c r="B570" t="s" s="2">
-        <v>483</v>
+        <v>486</v>
       </c>
     </row>
     <row r="571">
@@ -6619,7 +6642,7 @@
         <v>8</v>
       </c>
       <c r="B572" t="s" s="2">
-        <v>482</v>
+        <v>485</v>
       </c>
     </row>
     <row r="573">
@@ -6627,7 +6650,7 @@
         <v>9</v>
       </c>
       <c r="B573" t="s" s="2">
-        <v>482</v>
+        <v>485</v>
       </c>
     </row>
     <row r="574">
@@ -6715,7 +6738,7 @@
         <v>29</v>
       </c>
       <c r="B585" t="s" s="2">
-        <v>483</v>
+        <v>486</v>
       </c>
     </row>
     <row r="586">
@@ -6755,7 +6778,7 @@
         <v>2</v>
       </c>
       <c r="B590" t="s" s="2">
-        <v>491</v>
+        <v>494</v>
       </c>
     </row>
     <row r="591">
@@ -6763,7 +6786,7 @@
         <v>4</v>
       </c>
       <c r="B591" t="s" s="2">
-        <v>492</v>
+        <v>495</v>
       </c>
     </row>
     <row r="592">
@@ -6779,7 +6802,7 @@
         <v>8</v>
       </c>
       <c r="B593" t="s" s="2">
-        <v>491</v>
+        <v>494</v>
       </c>
     </row>
     <row r="594">
@@ -6787,7 +6810,7 @@
         <v>9</v>
       </c>
       <c r="B594" t="s" s="2">
-        <v>491</v>
+        <v>494</v>
       </c>
     </row>
     <row r="595">
@@ -6875,7 +6898,7 @@
         <v>29</v>
       </c>
       <c r="B606" t="s" s="2">
-        <v>492</v>
+        <v>495</v>
       </c>
     </row>
     <row r="607">
@@ -6915,7 +6938,7 @@
         <v>2</v>
       </c>
       <c r="B611" t="s" s="2">
-        <v>561</v>
+        <v>564</v>
       </c>
     </row>
     <row r="612">
@@ -6923,7 +6946,7 @@
         <v>4</v>
       </c>
       <c r="B612" t="s" s="2">
-        <v>562</v>
+        <v>565</v>
       </c>
     </row>
     <row r="613">
@@ -6939,7 +6962,7 @@
         <v>8</v>
       </c>
       <c r="B614" t="s" s="2">
-        <v>561</v>
+        <v>564</v>
       </c>
     </row>
     <row r="615">
@@ -6947,7 +6970,7 @@
         <v>9</v>
       </c>
       <c r="B615" t="s" s="2">
-        <v>561</v>
+        <v>564</v>
       </c>
     </row>
     <row r="616">
@@ -7035,7 +7058,7 @@
         <v>29</v>
       </c>
       <c r="B627" t="s" s="2">
-        <v>562</v>
+        <v>565</v>
       </c>
     </row>
     <row r="628">
@@ -7075,7 +7098,7 @@
         <v>2</v>
       </c>
       <c r="B632" t="s" s="2">
-        <v>583</v>
+        <v>586</v>
       </c>
     </row>
     <row r="633">
@@ -7083,7 +7106,7 @@
         <v>4</v>
       </c>
       <c r="B633" t="s" s="2">
-        <v>584</v>
+        <v>587</v>
       </c>
     </row>
     <row r="634">
@@ -7099,7 +7122,7 @@
         <v>8</v>
       </c>
       <c r="B635" t="s" s="2">
-        <v>583</v>
+        <v>586</v>
       </c>
     </row>
     <row r="636">
@@ -7107,7 +7130,7 @@
         <v>9</v>
       </c>
       <c r="B636" t="s" s="2">
-        <v>583</v>
+        <v>586</v>
       </c>
     </row>
     <row r="637">
@@ -7195,7 +7218,7 @@
         <v>29</v>
       </c>
       <c r="B648" t="s" s="2">
-        <v>584</v>
+        <v>587</v>
       </c>
     </row>
     <row r="649">
@@ -7235,7 +7258,7 @@
         <v>2</v>
       </c>
       <c r="B653" t="s" s="2">
-        <v>592</v>
+        <v>595</v>
       </c>
     </row>
     <row r="654">
@@ -7259,7 +7282,7 @@
         <v>8</v>
       </c>
       <c r="B656" t="s" s="2">
-        <v>592</v>
+        <v>595</v>
       </c>
     </row>
     <row r="657">
@@ -7267,7 +7290,7 @@
         <v>9</v>
       </c>
       <c r="B657" t="s" s="2">
-        <v>592</v>
+        <v>595</v>
       </c>
     </row>
     <row r="658">
@@ -7395,7 +7418,7 @@
         <v>2</v>
       </c>
       <c r="B674" t="s" s="2">
-        <v>594</v>
+        <v>597</v>
       </c>
     </row>
     <row r="675">
@@ -7403,7 +7426,7 @@
         <v>4</v>
       </c>
       <c r="B675" t="s" s="2">
-        <v>595</v>
+        <v>598</v>
       </c>
     </row>
     <row r="676">
@@ -7419,7 +7442,7 @@
         <v>8</v>
       </c>
       <c r="B677" t="s" s="2">
-        <v>594</v>
+        <v>597</v>
       </c>
     </row>
     <row r="678">
@@ -7427,7 +7450,7 @@
         <v>9</v>
       </c>
       <c r="B678" t="s" s="2">
-        <v>594</v>
+        <v>597</v>
       </c>
     </row>
     <row r="679">
@@ -7515,7 +7538,7 @@
         <v>29</v>
       </c>
       <c r="B690" t="s" s="2">
-        <v>595</v>
+        <v>598</v>
       </c>
     </row>
     <row r="691">
@@ -7555,7 +7578,7 @@
         <v>2</v>
       </c>
       <c r="B695" t="s" s="2">
-        <v>639</v>
+        <v>645</v>
       </c>
     </row>
     <row r="696">
@@ -7563,7 +7586,7 @@
         <v>4</v>
       </c>
       <c r="B696" t="s" s="2">
-        <v>640</v>
+        <v>646</v>
       </c>
     </row>
     <row r="697">
@@ -7579,7 +7602,7 @@
         <v>8</v>
       </c>
       <c r="B698" t="s" s="2">
-        <v>639</v>
+        <v>645</v>
       </c>
     </row>
     <row r="699">
@@ -7587,7 +7610,7 @@
         <v>9</v>
       </c>
       <c r="B699" t="s" s="2">
-        <v>639</v>
+        <v>645</v>
       </c>
     </row>
     <row r="700">
@@ -7675,7 +7698,7 @@
         <v>29</v>
       </c>
       <c r="B711" t="s" s="2">
-        <v>640</v>
+        <v>646</v>
       </c>
     </row>
     <row r="712">
@@ -7715,7 +7738,7 @@
         <v>2</v>
       </c>
       <c r="B716" t="s" s="2">
-        <v>661</v>
+        <v>668</v>
       </c>
     </row>
     <row r="717">
@@ -7723,7 +7746,7 @@
         <v>4</v>
       </c>
       <c r="B717" t="s" s="2">
-        <v>662</v>
+        <v>669</v>
       </c>
     </row>
     <row r="718">
@@ -7739,7 +7762,7 @@
         <v>8</v>
       </c>
       <c r="B719" t="s" s="2">
-        <v>661</v>
+        <v>668</v>
       </c>
     </row>
     <row r="720">
@@ -7747,7 +7770,7 @@
         <v>9</v>
       </c>
       <c r="B720" t="s" s="2">
-        <v>661</v>
+        <v>668</v>
       </c>
     </row>
     <row r="721">
@@ -7835,7 +7858,7 @@
         <v>29</v>
       </c>
       <c r="B732" t="s" s="2">
-        <v>662</v>
+        <v>669</v>
       </c>
     </row>
     <row r="733">
@@ -7875,7 +7898,7 @@
         <v>2</v>
       </c>
       <c r="B737" t="s" s="2">
-        <v>670</v>
+        <v>677</v>
       </c>
     </row>
     <row r="738">
@@ -7883,7 +7906,7 @@
         <v>4</v>
       </c>
       <c r="B738" t="s" s="2">
-        <v>671</v>
+        <v>678</v>
       </c>
     </row>
     <row r="739">
@@ -7899,7 +7922,7 @@
         <v>8</v>
       </c>
       <c r="B740" t="s" s="2">
-        <v>670</v>
+        <v>677</v>
       </c>
     </row>
     <row r="741">
@@ -7907,7 +7930,7 @@
         <v>9</v>
       </c>
       <c r="B741" t="s" s="2">
-        <v>670</v>
+        <v>677</v>
       </c>
     </row>
     <row r="742">
@@ -7995,7 +8018,7 @@
         <v>29</v>
       </c>
       <c r="B753" t="s" s="2">
-        <v>671</v>
+        <v>678</v>
       </c>
     </row>
     <row r="754">
@@ -8035,7 +8058,7 @@
         <v>2</v>
       </c>
       <c r="B758" t="s" s="2">
-        <v>679</v>
+        <v>686</v>
       </c>
     </row>
     <row r="759">
@@ -8043,7 +8066,7 @@
         <v>4</v>
       </c>
       <c r="B759" t="s" s="2">
-        <v>680</v>
+        <v>687</v>
       </c>
     </row>
     <row r="760">
@@ -8059,7 +8082,7 @@
         <v>8</v>
       </c>
       <c r="B761" t="s" s="2">
-        <v>679</v>
+        <v>686</v>
       </c>
     </row>
     <row r="762">
@@ -8067,7 +8090,7 @@
         <v>9</v>
       </c>
       <c r="B762" t="s" s="2">
-        <v>679</v>
+        <v>686</v>
       </c>
     </row>
     <row r="763">
@@ -8155,7 +8178,7 @@
         <v>29</v>
       </c>
       <c r="B774" t="s" s="2">
-        <v>680</v>
+        <v>687</v>
       </c>
     </row>
     <row r="775">
@@ -8189,7 +8212,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AK294"/>
+  <dimension ref="A1:AK297"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -26033,7 +26056,7 @@
     </row>
     <row r="175">
       <c r="A175" t="s" s="2">
-        <v>426</v>
+        <v>357</v>
       </c>
       <c r="B175" t="s" s="2">
         <v>426</v>
@@ -26047,10 +26070,10 @@
       </c>
       <c r="F175" s="2"/>
       <c r="G175" t="s" s="2">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="H175" t="s" s="2">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="I175" t="s" s="2">
         <v>72</v>
@@ -26062,7 +26085,7 @@
         <v>72</v>
       </c>
       <c r="L175" t="s" s="2">
-        <v>75</v>
+        <v>427</v>
       </c>
       <c r="M175" t="s" s="2">
         <v>428</v>
@@ -26119,13 +26142,13 @@
         <v>72</v>
       </c>
       <c r="AG175" t="s" s="2">
-        <v>76</v>
+        <v>426</v>
       </c>
       <c r="AH175" t="s" s="2">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="AI175" t="s" s="2">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="AJ175" t="s" s="2">
         <v>72</v>
@@ -26136,7 +26159,7 @@
     </row>
     <row r="176">
       <c r="A176" t="s" s="2">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="B176" t="s" s="2">
         <v>429</v>
@@ -26153,7 +26176,7 @@
         <v>73</v>
       </c>
       <c r="H176" t="s" s="2">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="I176" t="s" s="2">
         <v>72</v>
@@ -26165,13 +26188,13 @@
         <v>72</v>
       </c>
       <c r="L176" t="s" s="2">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="M176" t="s" s="2">
-        <v>198</v>
+        <v>431</v>
       </c>
       <c r="N176" t="s" s="2">
-        <v>198</v>
+        <v>431</v>
       </c>
       <c r="O176" s="2"/>
       <c r="P176" s="2"/>
@@ -26198,11 +26221,13 @@
         <v>72</v>
       </c>
       <c r="Y176" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="Z176" s="2"/>
+        <v>72</v>
+      </c>
+      <c r="Z176" t="s" s="2">
+        <v>72</v>
+      </c>
       <c r="AA176" t="s" s="2">
-        <v>199</v>
+        <v>72</v>
       </c>
       <c r="AB176" t="s" s="2">
         <v>72</v>
@@ -26220,13 +26245,13 @@
         <v>72</v>
       </c>
       <c r="AG176" t="s" s="2">
-        <v>200</v>
+        <v>76</v>
       </c>
       <c r="AH176" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI176" t="s" s="2">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="AJ176" t="s" s="2">
         <v>72</v>
@@ -26237,13 +26262,13 @@
     </row>
     <row r="177">
       <c r="A177" t="s" s="2">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="B177" t="s" s="2">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="C177" t="s" s="2">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="D177" s="2"/>
       <c r="E177" t="s" s="2">
@@ -26266,13 +26291,13 @@
         <v>72</v>
       </c>
       <c r="L177" t="s" s="2">
-        <v>142</v>
+        <v>92</v>
       </c>
       <c r="M177" t="s" s="2">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="N177" t="s" s="2">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="O177" s="2"/>
       <c r="P177" s="2"/>
@@ -26299,13 +26324,11 @@
         <v>72</v>
       </c>
       <c r="Y177" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Z177" t="s" s="2">
-        <v>72</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="Z177" s="2"/>
       <c r="AA177" t="s" s="2">
-        <v>72</v>
+        <v>199</v>
       </c>
       <c r="AB177" t="s" s="2">
         <v>72</v>
@@ -26323,7 +26346,7 @@
         <v>72</v>
       </c>
       <c r="AG177" t="s" s="2">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="AH177" t="s" s="2">
         <v>73</v>
@@ -26340,13 +26363,13 @@
     </row>
     <row r="178">
       <c r="A178" t="s" s="2">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="B178" t="s" s="2">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="C178" t="s" s="2">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="D178" s="2"/>
       <c r="E178" t="s" s="2">
@@ -26372,10 +26395,10 @@
         <v>142</v>
       </c>
       <c r="M178" t="s" s="2">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="N178" t="s" s="2">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="O178" s="2"/>
       <c r="P178" s="2"/>
@@ -26426,7 +26449,7 @@
         <v>72</v>
       </c>
       <c r="AG178" t="s" s="2">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="AH178" t="s" s="2">
         <v>73</v>
@@ -26443,13 +26466,13 @@
     </row>
     <row r="179">
       <c r="A179" t="s" s="2">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="B179" t="s" s="2">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="C179" t="s" s="2">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="D179" s="2"/>
       <c r="E179" t="s" s="2">
@@ -26472,13 +26495,13 @@
         <v>72</v>
       </c>
       <c r="L179" t="s" s="2">
-        <v>92</v>
+        <v>142</v>
       </c>
       <c r="M179" t="s" s="2">
-        <v>433</v>
+        <v>205</v>
       </c>
       <c r="N179" t="s" s="2">
-        <v>433</v>
+        <v>205</v>
       </c>
       <c r="O179" s="2"/>
       <c r="P179" s="2"/>
@@ -26505,11 +26528,13 @@
         <v>72</v>
       </c>
       <c r="Y179" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="Z179" s="2"/>
+        <v>72</v>
+      </c>
+      <c r="Z179" t="s" s="2">
+        <v>72</v>
+      </c>
       <c r="AA179" t="s" s="2">
-        <v>434</v>
+        <v>72</v>
       </c>
       <c r="AB179" t="s" s="2">
         <v>72</v>
@@ -26527,7 +26552,7 @@
         <v>72</v>
       </c>
       <c r="AG179" t="s" s="2">
-        <v>432</v>
+        <v>206</v>
       </c>
       <c r="AH179" t="s" s="2">
         <v>73</v>
@@ -26544,7 +26569,7 @@
     </row>
     <row r="180">
       <c r="A180" t="s" s="2">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="B180" t="s" s="2">
         <v>435</v>
@@ -26561,7 +26586,7 @@
         <v>73</v>
       </c>
       <c r="H180" t="s" s="2">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="I180" t="s" s="2">
         <v>72</v>
@@ -26573,13 +26598,13 @@
         <v>72</v>
       </c>
       <c r="L180" t="s" s="2">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="M180" t="s" s="2">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="N180" t="s" s="2">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="O180" s="2"/>
       <c r="P180" s="2"/>
@@ -26606,13 +26631,11 @@
         <v>72</v>
       </c>
       <c r="Y180" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Z180" t="s" s="2">
-        <v>72</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="Z180" s="2"/>
       <c r="AA180" t="s" s="2">
-        <v>72</v>
+        <v>437</v>
       </c>
       <c r="AB180" t="s" s="2">
         <v>72</v>
@@ -26630,13 +26653,13 @@
         <v>72</v>
       </c>
       <c r="AG180" t="s" s="2">
-        <v>76</v>
+        <v>435</v>
       </c>
       <c r="AH180" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI180" t="s" s="2">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="AJ180" t="s" s="2">
         <v>72</v>
@@ -26647,7 +26670,7 @@
     </row>
     <row r="181">
       <c r="A181" t="s" s="2">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="B181" t="s" s="2">
         <v>438</v>
@@ -26664,7 +26687,7 @@
         <v>73</v>
       </c>
       <c r="H181" t="s" s="2">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="I181" t="s" s="2">
         <v>72</v>
@@ -26676,13 +26699,13 @@
         <v>72</v>
       </c>
       <c r="L181" t="s" s="2">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="M181" t="s" s="2">
-        <v>134</v>
+        <v>440</v>
       </c>
       <c r="N181" t="s" s="2">
-        <v>134</v>
+        <v>440</v>
       </c>
       <c r="O181" s="2"/>
       <c r="P181" s="2"/>
@@ -26709,11 +26732,13 @@
         <v>72</v>
       </c>
       <c r="Y181" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="Z181" s="2"/>
+        <v>72</v>
+      </c>
+      <c r="Z181" t="s" s="2">
+        <v>72</v>
+      </c>
       <c r="AA181" t="s" s="2">
-        <v>135</v>
+        <v>72</v>
       </c>
       <c r="AB181" t="s" s="2">
         <v>72</v>
@@ -26731,13 +26756,13 @@
         <v>72</v>
       </c>
       <c r="AG181" t="s" s="2">
-        <v>136</v>
+        <v>76</v>
       </c>
       <c r="AH181" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI181" t="s" s="2">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="AJ181" t="s" s="2">
         <v>72</v>
@@ -26748,13 +26773,13 @@
     </row>
     <row r="182">
       <c r="A182" t="s" s="2">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="B182" t="s" s="2">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="C182" t="s" s="2">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="D182" s="2"/>
       <c r="E182" t="s" s="2">
@@ -26780,10 +26805,10 @@
         <v>92</v>
       </c>
       <c r="M182" t="s" s="2">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="N182" t="s" s="2">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="O182" s="2"/>
       <c r="P182" s="2"/>
@@ -26814,7 +26839,7 @@
       </c>
       <c r="Z182" s="2"/>
       <c r="AA182" t="s" s="2">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="AB182" t="s" s="2">
         <v>72</v>
@@ -26832,7 +26857,7 @@
         <v>72</v>
       </c>
       <c r="AG182" t="s" s="2">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="AH182" t="s" s="2">
         <v>73</v>
@@ -26849,13 +26874,13 @@
     </row>
     <row r="183">
       <c r="A183" t="s" s="2">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="B183" t="s" s="2">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="C183" t="s" s="2">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="D183" s="2"/>
       <c r="E183" t="s" s="2">
@@ -26878,13 +26903,13 @@
         <v>72</v>
       </c>
       <c r="L183" t="s" s="2">
-        <v>142</v>
+        <v>92</v>
       </c>
       <c r="M183" t="s" s="2">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="N183" t="s" s="2">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="O183" s="2"/>
       <c r="P183" s="2"/>
@@ -26911,13 +26936,11 @@
         <v>72</v>
       </c>
       <c r="Y183" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Z183" t="s" s="2">
-        <v>72</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="Z183" s="2"/>
       <c r="AA183" t="s" s="2">
-        <v>72</v>
+        <v>139</v>
       </c>
       <c r="AB183" t="s" s="2">
         <v>72</v>
@@ -26935,7 +26958,7 @@
         <v>72</v>
       </c>
       <c r="AG183" t="s" s="2">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="AH183" t="s" s="2">
         <v>73</v>
@@ -26952,13 +26975,13 @@
     </row>
     <row r="184">
       <c r="A184" t="s" s="2">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="B184" t="s" s="2">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="C184" t="s" s="2">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="D184" s="2"/>
       <c r="E184" t="s" s="2">
@@ -26981,13 +27004,13 @@
         <v>72</v>
       </c>
       <c r="L184" t="s" s="2">
-        <v>79</v>
+        <v>142</v>
       </c>
       <c r="M184" t="s" s="2">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="N184" t="s" s="2">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="O184" s="2"/>
       <c r="P184" s="2"/>
@@ -27038,7 +27061,7 @@
         <v>72</v>
       </c>
       <c r="AG184" t="s" s="2">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="AH184" t="s" s="2">
         <v>73</v>
@@ -27055,13 +27078,13 @@
     </row>
     <row r="185">
       <c r="A185" t="s" s="2">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="B185" t="s" s="2">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="C185" t="s" s="2">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="D185" s="2"/>
       <c r="E185" t="s" s="2">
@@ -27084,13 +27107,13 @@
         <v>72</v>
       </c>
       <c r="L185" t="s" s="2">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="M185" t="s" s="2">
-        <v>443</v>
+        <v>146</v>
       </c>
       <c r="N185" t="s" s="2">
-        <v>443</v>
+        <v>146</v>
       </c>
       <c r="O185" s="2"/>
       <c r="P185" s="2"/>
@@ -27117,11 +27140,13 @@
         <v>72</v>
       </c>
       <c r="Y185" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="Z185" s="2"/>
+        <v>72</v>
+      </c>
+      <c r="Z185" t="s" s="2">
+        <v>72</v>
+      </c>
       <c r="AA185" t="s" s="2">
-        <v>444</v>
+        <v>72</v>
       </c>
       <c r="AB185" t="s" s="2">
         <v>72</v>
@@ -27139,7 +27164,7 @@
         <v>72</v>
       </c>
       <c r="AG185" t="s" s="2">
-        <v>442</v>
+        <v>147</v>
       </c>
       <c r="AH185" t="s" s="2">
         <v>73</v>
@@ -27156,7 +27181,7 @@
     </row>
     <row r="186">
       <c r="A186" t="s" s="2">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="B186" t="s" s="2">
         <v>445</v>
@@ -27173,7 +27198,7 @@
         <v>73</v>
       </c>
       <c r="H186" t="s" s="2">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="I186" t="s" s="2">
         <v>72</v>
@@ -27185,13 +27210,13 @@
         <v>72</v>
       </c>
       <c r="L186" t="s" s="2">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="M186" t="s" s="2">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="N186" t="s" s="2">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="O186" s="2"/>
       <c r="P186" s="2"/>
@@ -27218,13 +27243,11 @@
         <v>72</v>
       </c>
       <c r="Y186" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Z186" t="s" s="2">
-        <v>72</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="Z186" s="2"/>
       <c r="AA186" t="s" s="2">
-        <v>72</v>
+        <v>447</v>
       </c>
       <c r="AB186" t="s" s="2">
         <v>72</v>
@@ -27242,13 +27265,13 @@
         <v>72</v>
       </c>
       <c r="AG186" t="s" s="2">
-        <v>76</v>
+        <v>445</v>
       </c>
       <c r="AH186" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI186" t="s" s="2">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="AJ186" t="s" s="2">
         <v>72</v>
@@ -27259,7 +27282,7 @@
     </row>
     <row r="187">
       <c r="A187" t="s" s="2">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="B187" t="s" s="2">
         <v>448</v>
@@ -27276,7 +27299,7 @@
         <v>73</v>
       </c>
       <c r="H187" t="s" s="2">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="I187" t="s" s="2">
         <v>72</v>
@@ -27288,7 +27311,7 @@
         <v>72</v>
       </c>
       <c r="L187" t="s" s="2">
-        <v>449</v>
+        <v>75</v>
       </c>
       <c r="M187" t="s" s="2">
         <v>450</v>
@@ -27345,13 +27368,13 @@
         <v>72</v>
       </c>
       <c r="AG187" t="s" s="2">
-        <v>448</v>
+        <v>76</v>
       </c>
       <c r="AH187" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI187" t="s" s="2">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="AJ187" t="s" s="2">
         <v>72</v>
@@ -27362,7 +27385,7 @@
     </row>
     <row r="188">
       <c r="A188" t="s" s="2">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="B188" t="s" s="2">
         <v>451</v>
@@ -27391,13 +27414,13 @@
         <v>72</v>
       </c>
       <c r="L188" t="s" s="2">
-        <v>92</v>
+        <v>452</v>
       </c>
       <c r="M188" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="N188" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="O188" s="2"/>
       <c r="P188" s="2"/>
@@ -27424,11 +27447,13 @@
         <v>72</v>
       </c>
       <c r="Y188" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="Z188" s="2"/>
+        <v>72</v>
+      </c>
+      <c r="Z188" t="s" s="2">
+        <v>72</v>
+      </c>
       <c r="AA188" t="s" s="2">
-        <v>453</v>
+        <v>72</v>
       </c>
       <c r="AB188" t="s" s="2">
         <v>72</v>
@@ -27463,7 +27488,7 @@
     </row>
     <row r="189">
       <c r="A189" t="s" s="2">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="B189" t="s" s="2">
         <v>454</v>
@@ -27492,7 +27517,7 @@
         <v>72</v>
       </c>
       <c r="L189" t="s" s="2">
-        <v>179</v>
+        <v>92</v>
       </c>
       <c r="M189" t="s" s="2">
         <v>455</v>
@@ -27525,13 +27550,11 @@
         <v>72</v>
       </c>
       <c r="Y189" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Z189" t="s" s="2">
-        <v>72</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="Z189" s="2"/>
       <c r="AA189" t="s" s="2">
-        <v>72</v>
+        <v>456</v>
       </c>
       <c r="AB189" t="s" s="2">
         <v>72</v>
@@ -27566,13 +27589,13 @@
     </row>
     <row r="190">
       <c r="A190" t="s" s="2">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="B190" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C190" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="D190" s="2"/>
       <c r="E190" t="s" s="2">
@@ -27595,7 +27618,7 @@
         <v>72</v>
       </c>
       <c r="L190" t="s" s="2">
-        <v>457</v>
+        <v>179</v>
       </c>
       <c r="M190" t="s" s="2">
         <v>458</v>
@@ -27652,7 +27675,7 @@
         <v>72</v>
       </c>
       <c r="AG190" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="AH190" t="s" s="2">
         <v>73</v>
@@ -27669,7 +27692,7 @@
     </row>
     <row r="191">
       <c r="A191" t="s" s="2">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="B191" t="s" s="2">
         <v>459</v>
@@ -27772,7 +27795,7 @@
     </row>
     <row r="192">
       <c r="A192" t="s" s="2">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="B192" t="s" s="2">
         <v>462</v>
@@ -27801,13 +27824,13 @@
         <v>72</v>
       </c>
       <c r="L192" t="s" s="2">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="M192" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="N192" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="O192" s="2"/>
       <c r="P192" s="2"/>
@@ -27875,13 +27898,13 @@
     </row>
     <row r="193">
       <c r="A193" t="s" s="2">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="B193" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C193" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="D193" s="2"/>
       <c r="E193" t="s" s="2">
@@ -27904,13 +27927,13 @@
         <v>72</v>
       </c>
       <c r="L193" t="s" s="2">
-        <v>92</v>
+        <v>463</v>
       </c>
       <c r="M193" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="N193" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="O193" s="2"/>
       <c r="P193" s="2"/>
@@ -27961,7 +27984,7 @@
         <v>72</v>
       </c>
       <c r="AG193" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="AH193" t="s" s="2">
         <v>73</v>
@@ -27978,13 +28001,13 @@
     </row>
     <row r="194">
       <c r="A194" t="s" s="2">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="B194" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="C194" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="D194" s="2"/>
       <c r="E194" t="s" s="2">
@@ -28007,13 +28030,13 @@
         <v>72</v>
       </c>
       <c r="L194" t="s" s="2">
-        <v>142</v>
+        <v>92</v>
       </c>
       <c r="M194" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="N194" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="O194" s="2"/>
       <c r="P194" s="2"/>
@@ -28064,7 +28087,7 @@
         <v>72</v>
       </c>
       <c r="AG194" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="AH194" t="s" s="2">
         <v>73</v>
@@ -28081,13 +28104,13 @@
     </row>
     <row r="195">
       <c r="A195" t="s" s="2">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="B195" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="C195" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="D195" s="2"/>
       <c r="E195" t="s" s="2">
@@ -28113,10 +28136,10 @@
         <v>142</v>
       </c>
       <c r="M195" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="N195" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="O195" s="2"/>
       <c r="P195" s="2"/>
@@ -28167,7 +28190,7 @@
         <v>72</v>
       </c>
       <c r="AG195" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="AH195" t="s" s="2">
         <v>73</v>
@@ -28184,13 +28207,13 @@
     </row>
     <row r="196">
       <c r="A196" t="s" s="2">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="B196" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="C196" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="D196" s="2"/>
       <c r="E196" t="s" s="2">
@@ -28216,10 +28239,10 @@
         <v>142</v>
       </c>
       <c r="M196" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="N196" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="O196" s="2"/>
       <c r="P196" s="2"/>
@@ -28270,7 +28293,7 @@
         <v>72</v>
       </c>
       <c r="AG196" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="AH196" t="s" s="2">
         <v>73</v>
@@ -28287,13 +28310,13 @@
     </row>
     <row r="197">
       <c r="A197" t="s" s="2">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="B197" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="C197" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="D197" s="2"/>
       <c r="E197" t="s" s="2">
@@ -28304,7 +28327,7 @@
         <v>73</v>
       </c>
       <c r="H197" t="s" s="2">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="I197" t="s" s="2">
         <v>72</v>
@@ -28316,13 +28339,13 @@
         <v>72</v>
       </c>
       <c r="L197" t="s" s="2">
-        <v>79</v>
+        <v>142</v>
       </c>
       <c r="M197" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="N197" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="O197" s="2"/>
       <c r="P197" s="2"/>
@@ -28373,13 +28396,13 @@
         <v>72</v>
       </c>
       <c r="AG197" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="AH197" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI197" t="s" s="2">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="AJ197" t="s" s="2">
         <v>72</v>
@@ -28390,13 +28413,13 @@
     </row>
     <row r="198">
       <c r="A198" t="s" s="2">
-        <v>474</v>
+        <v>448</v>
       </c>
       <c r="B198" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="C198" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="D198" s="2"/>
       <c r="E198" t="s" s="2">
@@ -28419,7 +28442,7 @@
         <v>72</v>
       </c>
       <c r="L198" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="M198" t="s" s="2">
         <v>476</v>
@@ -28476,7 +28499,7 @@
         <v>72</v>
       </c>
       <c r="AG198" t="s" s="2">
-        <v>76</v>
+        <v>475</v>
       </c>
       <c r="AH198" t="s" s="2">
         <v>73</v>
@@ -28493,7 +28516,7 @@
     </row>
     <row r="199">
       <c r="A199" t="s" s="2">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="B199" t="s" s="2">
         <v>477</v>
@@ -28510,7 +28533,7 @@
         <v>73</v>
       </c>
       <c r="H199" t="s" s="2">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="I199" t="s" s="2">
         <v>72</v>
@@ -28522,13 +28545,13 @@
         <v>72</v>
       </c>
       <c r="L199" t="s" s="2">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="M199" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="N199" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="O199" s="2"/>
       <c r="P199" s="2"/>
@@ -28555,11 +28578,13 @@
         <v>72</v>
       </c>
       <c r="Y199" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="Z199" s="2"/>
+        <v>72</v>
+      </c>
+      <c r="Z199" t="s" s="2">
+        <v>72</v>
+      </c>
       <c r="AA199" t="s" s="2">
-        <v>479</v>
+        <v>72</v>
       </c>
       <c r="AB199" t="s" s="2">
         <v>72</v>
@@ -28577,13 +28602,13 @@
         <v>72</v>
       </c>
       <c r="AG199" t="s" s="2">
-        <v>477</v>
+        <v>76</v>
       </c>
       <c r="AH199" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI199" t="s" s="2">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="AJ199" t="s" s="2">
         <v>72</v>
@@ -28594,7 +28619,7 @@
     </row>
     <row r="200">
       <c r="A200" t="s" s="2">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="B200" t="s" s="2">
         <v>480</v>
@@ -28623,7 +28648,7 @@
         <v>72</v>
       </c>
       <c r="L200" t="s" s="2">
-        <v>142</v>
+        <v>92</v>
       </c>
       <c r="M200" t="s" s="2">
         <v>481</v>
@@ -28656,13 +28681,11 @@
         <v>72</v>
       </c>
       <c r="Y200" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Z200" t="s" s="2">
-        <v>72</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="Z200" s="2"/>
       <c r="AA200" t="s" s="2">
-        <v>72</v>
+        <v>482</v>
       </c>
       <c r="AB200" t="s" s="2">
         <v>72</v>
@@ -28697,13 +28720,13 @@
     </row>
     <row r="201">
       <c r="A201" t="s" s="2">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="B201" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="C201" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="D201" s="2"/>
       <c r="E201" t="s" s="2">
@@ -28714,7 +28737,7 @@
         <v>73</v>
       </c>
       <c r="H201" t="s" s="2">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="I201" t="s" s="2">
         <v>72</v>
@@ -28726,7 +28749,7 @@
         <v>72</v>
       </c>
       <c r="L201" t="s" s="2">
-        <v>75</v>
+        <v>142</v>
       </c>
       <c r="M201" t="s" s="2">
         <v>484</v>
@@ -28783,13 +28806,13 @@
         <v>72</v>
       </c>
       <c r="AG201" t="s" s="2">
-        <v>76</v>
+        <v>483</v>
       </c>
       <c r="AH201" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI201" t="s" s="2">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="AJ201" t="s" s="2">
         <v>72</v>
@@ -28800,7 +28823,7 @@
     </row>
     <row r="202">
       <c r="A202" t="s" s="2">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="B202" t="s" s="2">
         <v>485</v>
@@ -28817,7 +28840,7 @@
         <v>73</v>
       </c>
       <c r="H202" t="s" s="2">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="I202" t="s" s="2">
         <v>72</v>
@@ -28829,13 +28852,13 @@
         <v>72</v>
       </c>
       <c r="L202" t="s" s="2">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="M202" t="s" s="2">
-        <v>198</v>
+        <v>487</v>
       </c>
       <c r="N202" t="s" s="2">
-        <v>198</v>
+        <v>487</v>
       </c>
       <c r="O202" s="2"/>
       <c r="P202" s="2"/>
@@ -28862,11 +28885,13 @@
         <v>72</v>
       </c>
       <c r="Y202" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="Z202" s="2"/>
+        <v>72</v>
+      </c>
+      <c r="Z202" t="s" s="2">
+        <v>72</v>
+      </c>
       <c r="AA202" t="s" s="2">
-        <v>199</v>
+        <v>72</v>
       </c>
       <c r="AB202" t="s" s="2">
         <v>72</v>
@@ -28884,13 +28909,13 @@
         <v>72</v>
       </c>
       <c r="AG202" t="s" s="2">
-        <v>200</v>
+        <v>76</v>
       </c>
       <c r="AH202" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI202" t="s" s="2">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="AJ202" t="s" s="2">
         <v>72</v>
@@ -28901,13 +28926,13 @@
     </row>
     <row r="203">
       <c r="A203" t="s" s="2">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="B203" t="s" s="2">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="C203" t="s" s="2">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="D203" s="2"/>
       <c r="E203" t="s" s="2">
@@ -28930,13 +28955,13 @@
         <v>72</v>
       </c>
       <c r="L203" t="s" s="2">
-        <v>142</v>
+        <v>92</v>
       </c>
       <c r="M203" t="s" s="2">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="N203" t="s" s="2">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="O203" s="2"/>
       <c r="P203" s="2"/>
@@ -28963,13 +28988,11 @@
         <v>72</v>
       </c>
       <c r="Y203" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Z203" t="s" s="2">
-        <v>72</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="Z203" s="2"/>
       <c r="AA203" t="s" s="2">
-        <v>72</v>
+        <v>199</v>
       </c>
       <c r="AB203" t="s" s="2">
         <v>72</v>
@@ -28987,7 +29010,7 @@
         <v>72</v>
       </c>
       <c r="AG203" t="s" s="2">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="AH203" t="s" s="2">
         <v>73</v>
@@ -29004,13 +29027,13 @@
     </row>
     <row r="204">
       <c r="A204" t="s" s="2">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="B204" t="s" s="2">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="C204" t="s" s="2">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="D204" s="2"/>
       <c r="E204" t="s" s="2">
@@ -29036,10 +29059,10 @@
         <v>142</v>
       </c>
       <c r="M204" t="s" s="2">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="N204" t="s" s="2">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="O204" s="2"/>
       <c r="P204" s="2"/>
@@ -29090,7 +29113,7 @@
         <v>72</v>
       </c>
       <c r="AG204" t="s" s="2">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="AH204" t="s" s="2">
         <v>73</v>
@@ -29107,13 +29130,13 @@
     </row>
     <row r="205">
       <c r="A205" t="s" s="2">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="B205" t="s" s="2">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="C205" t="s" s="2">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="D205" s="2"/>
       <c r="E205" t="s" s="2">
@@ -29136,13 +29159,13 @@
         <v>72</v>
       </c>
       <c r="L205" t="s" s="2">
-        <v>92</v>
+        <v>142</v>
       </c>
       <c r="M205" t="s" s="2">
-        <v>489</v>
+        <v>205</v>
       </c>
       <c r="N205" t="s" s="2">
-        <v>489</v>
+        <v>205</v>
       </c>
       <c r="O205" s="2"/>
       <c r="P205" s="2"/>
@@ -29169,11 +29192,13 @@
         <v>72</v>
       </c>
       <c r="Y205" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="Z205" s="2"/>
+        <v>72</v>
+      </c>
+      <c r="Z205" t="s" s="2">
+        <v>72</v>
+      </c>
       <c r="AA205" t="s" s="2">
-        <v>490</v>
+        <v>72</v>
       </c>
       <c r="AB205" t="s" s="2">
         <v>72</v>
@@ -29191,7 +29216,7 @@
         <v>72</v>
       </c>
       <c r="AG205" t="s" s="2">
-        <v>488</v>
+        <v>206</v>
       </c>
       <c r="AH205" t="s" s="2">
         <v>73</v>
@@ -29208,7 +29233,7 @@
     </row>
     <row r="206">
       <c r="A206" t="s" s="2">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="B206" t="s" s="2">
         <v>491</v>
@@ -29225,7 +29250,7 @@
         <v>73</v>
       </c>
       <c r="H206" t="s" s="2">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="I206" t="s" s="2">
         <v>72</v>
@@ -29237,13 +29262,13 @@
         <v>72</v>
       </c>
       <c r="L206" t="s" s="2">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="M206" t="s" s="2">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="N206" t="s" s="2">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="O206" s="2"/>
       <c r="P206" s="2"/>
@@ -29270,13 +29295,11 @@
         <v>72</v>
       </c>
       <c r="Y206" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Z206" t="s" s="2">
-        <v>72</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="Z206" s="2"/>
       <c r="AA206" t="s" s="2">
-        <v>72</v>
+        <v>493</v>
       </c>
       <c r="AB206" t="s" s="2">
         <v>72</v>
@@ -29294,13 +29317,13 @@
         <v>72</v>
       </c>
       <c r="AG206" t="s" s="2">
-        <v>76</v>
+        <v>491</v>
       </c>
       <c r="AH206" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI206" t="s" s="2">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="AJ206" t="s" s="2">
         <v>72</v>
@@ -29311,7 +29334,7 @@
     </row>
     <row r="207">
       <c r="A207" t="s" s="2">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="B207" t="s" s="2">
         <v>494</v>
@@ -29328,7 +29351,7 @@
         <v>73</v>
       </c>
       <c r="H207" t="s" s="2">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="I207" t="s" s="2">
         <v>72</v>
@@ -29340,13 +29363,13 @@
         <v>72</v>
       </c>
       <c r="L207" t="s" s="2">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="M207" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="N207" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="O207" s="2"/>
       <c r="P207" s="2"/>
@@ -29373,11 +29396,13 @@
         <v>72</v>
       </c>
       <c r="Y207" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="Z207" s="2"/>
+        <v>72</v>
+      </c>
+      <c r="Z207" t="s" s="2">
+        <v>72</v>
+      </c>
       <c r="AA207" t="s" s="2">
-        <v>496</v>
+        <v>72</v>
       </c>
       <c r="AB207" t="s" s="2">
         <v>72</v>
@@ -29395,13 +29420,13 @@
         <v>72</v>
       </c>
       <c r="AG207" t="s" s="2">
-        <v>494</v>
+        <v>76</v>
       </c>
       <c r="AH207" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI207" t="s" s="2">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="AJ207" t="s" s="2">
         <v>72</v>
@@ -29412,7 +29437,7 @@
     </row>
     <row r="208">
       <c r="A208" t="s" s="2">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="B208" t="s" s="2">
         <v>497</v>
@@ -29441,7 +29466,7 @@
         <v>72</v>
       </c>
       <c r="L208" t="s" s="2">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="M208" t="s" s="2">
         <v>498</v>
@@ -29474,13 +29499,11 @@
         <v>72</v>
       </c>
       <c r="Y208" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Z208" t="s" s="2">
-        <v>72</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="Z208" s="2"/>
       <c r="AA208" t="s" s="2">
-        <v>72</v>
+        <v>499</v>
       </c>
       <c r="AB208" t="s" s="2">
         <v>72</v>
@@ -29515,13 +29538,13 @@
     </row>
     <row r="209">
       <c r="A209" t="s" s="2">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="B209" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="C209" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="D209" s="2"/>
       <c r="E209" t="s" s="2">
@@ -29547,10 +29570,10 @@
         <v>79</v>
       </c>
       <c r="M209" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="N209" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="O209" s="2"/>
       <c r="P209" s="2"/>
@@ -29601,7 +29624,7 @@
         <v>72</v>
       </c>
       <c r="AG209" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="AH209" t="s" s="2">
         <v>73</v>
@@ -29618,13 +29641,13 @@
     </row>
     <row r="210">
       <c r="A210" t="s" s="2">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="B210" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C210" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="D210" s="2"/>
       <c r="E210" t="s" s="2">
@@ -29635,7 +29658,7 @@
         <v>73</v>
       </c>
       <c r="H210" t="s" s="2">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="I210" t="s" s="2">
         <v>72</v>
@@ -29650,10 +29673,10 @@
         <v>79</v>
       </c>
       <c r="M210" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="N210" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="O210" s="2"/>
       <c r="P210" s="2"/>
@@ -29704,13 +29727,13 @@
         <v>72</v>
       </c>
       <c r="AG210" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="AH210" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI210" t="s" s="2">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="AJ210" t="s" s="2">
         <v>72</v>
@@ -29721,13 +29744,13 @@
     </row>
     <row r="211">
       <c r="A211" t="s" s="2">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="B211" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="C211" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="D211" s="2"/>
       <c r="E211" t="s" s="2">
@@ -29738,7 +29761,7 @@
         <v>73</v>
       </c>
       <c r="H211" t="s" s="2">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="I211" t="s" s="2">
         <v>72</v>
@@ -29753,10 +29776,10 @@
         <v>79</v>
       </c>
       <c r="M211" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="N211" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="O211" s="2"/>
       <c r="P211" s="2"/>
@@ -29807,13 +29830,13 @@
         <v>72</v>
       </c>
       <c r="AG211" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="AH211" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI211" t="s" s="2">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="AJ211" t="s" s="2">
         <v>72</v>
@@ -29824,13 +29847,13 @@
     </row>
     <row r="212">
       <c r="A212" t="s" s="2">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="B212" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="C212" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="D212" s="2"/>
       <c r="E212" t="s" s="2">
@@ -29856,10 +29879,10 @@
         <v>79</v>
       </c>
       <c r="M212" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="N212" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="O212" s="2"/>
       <c r="P212" s="2"/>
@@ -29910,7 +29933,7 @@
         <v>72</v>
       </c>
       <c r="AG212" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="AH212" t="s" s="2">
         <v>73</v>
@@ -29927,13 +29950,13 @@
     </row>
     <row r="213">
       <c r="A213" t="s" s="2">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="B213" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="C213" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="D213" s="2"/>
       <c r="E213" t="s" s="2">
@@ -29959,10 +29982,10 @@
         <v>79</v>
       </c>
       <c r="M213" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="N213" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="O213" s="2"/>
       <c r="P213" s="2"/>
@@ -30013,7 +30036,7 @@
         <v>72</v>
       </c>
       <c r="AG213" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="AH213" t="s" s="2">
         <v>73</v>
@@ -30030,13 +30053,13 @@
     </row>
     <row r="214">
       <c r="A214" t="s" s="2">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="B214" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="C214" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="D214" s="2"/>
       <c r="E214" t="s" s="2">
@@ -30059,13 +30082,13 @@
         <v>72</v>
       </c>
       <c r="L214" t="s" s="2">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="M214" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="N214" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="O214" s="2"/>
       <c r="P214" s="2"/>
@@ -30092,11 +30115,13 @@
         <v>72</v>
       </c>
       <c r="Y214" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="Z214" s="2"/>
+        <v>72</v>
+      </c>
+      <c r="Z214" t="s" s="2">
+        <v>72</v>
+      </c>
       <c r="AA214" t="s" s="2">
-        <v>511</v>
+        <v>72</v>
       </c>
       <c r="AB214" t="s" s="2">
         <v>72</v>
@@ -30114,7 +30139,7 @@
         <v>72</v>
       </c>
       <c r="AG214" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="AH214" t="s" s="2">
         <v>73</v>
@@ -30131,7 +30156,7 @@
     </row>
     <row r="215">
       <c r="A215" t="s" s="2">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="B215" t="s" s="2">
         <v>512</v>
@@ -30232,7 +30257,7 @@
     </row>
     <row r="216">
       <c r="A216" t="s" s="2">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="B216" t="s" s="2">
         <v>515</v>
@@ -30249,7 +30274,7 @@
         <v>73</v>
       </c>
       <c r="H216" t="s" s="2">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="I216" t="s" s="2">
         <v>72</v>
@@ -30261,13 +30286,13 @@
         <v>72</v>
       </c>
       <c r="L216" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="M216" t="s" s="2">
         <v>516</v>
       </c>
-      <c r="M216" t="s" s="2">
-        <v>517</v>
-      </c>
       <c r="N216" t="s" s="2">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="O216" s="2"/>
       <c r="P216" s="2"/>
@@ -30294,13 +30319,11 @@
         <v>72</v>
       </c>
       <c r="Y216" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Z216" t="s" s="2">
-        <v>72</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="Z216" s="2"/>
       <c r="AA216" t="s" s="2">
-        <v>72</v>
+        <v>517</v>
       </c>
       <c r="AB216" t="s" s="2">
         <v>72</v>
@@ -30324,7 +30347,7 @@
         <v>73</v>
       </c>
       <c r="AI216" t="s" s="2">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="AJ216" t="s" s="2">
         <v>72</v>
@@ -30335,7 +30358,7 @@
     </row>
     <row r="217">
       <c r="A217" t="s" s="2">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="B217" t="s" s="2">
         <v>518</v>
@@ -30352,7 +30375,7 @@
         <v>73</v>
       </c>
       <c r="H217" t="s" s="2">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="I217" t="s" s="2">
         <v>72</v>
@@ -30364,13 +30387,13 @@
         <v>72</v>
       </c>
       <c r="L217" t="s" s="2">
-        <v>92</v>
+        <v>519</v>
       </c>
       <c r="M217" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="N217" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="O217" s="2"/>
       <c r="P217" s="2"/>
@@ -30427,7 +30450,7 @@
         <v>73</v>
       </c>
       <c r="AI217" t="s" s="2">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="AJ217" t="s" s="2">
         <v>72</v>
@@ -30438,13 +30461,13 @@
     </row>
     <row r="218">
       <c r="A218" t="s" s="2">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="B218" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="C218" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="D218" s="2"/>
       <c r="E218" t="s" s="2">
@@ -30467,13 +30490,13 @@
         <v>72</v>
       </c>
       <c r="L218" t="s" s="2">
-        <v>142</v>
+        <v>92</v>
       </c>
       <c r="M218" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="N218" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="O218" s="2"/>
       <c r="P218" s="2"/>
@@ -30524,7 +30547,7 @@
         <v>72</v>
       </c>
       <c r="AG218" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="AH218" t="s" s="2">
         <v>73</v>
@@ -30541,13 +30564,13 @@
     </row>
     <row r="219">
       <c r="A219" t="s" s="2">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="B219" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="C219" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="D219" s="2"/>
       <c r="E219" t="s" s="2">
@@ -30573,10 +30596,10 @@
         <v>142</v>
       </c>
       <c r="M219" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="N219" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="O219" s="2"/>
       <c r="P219" s="2"/>
@@ -30627,7 +30650,7 @@
         <v>72</v>
       </c>
       <c r="AG219" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="AH219" t="s" s="2">
         <v>73</v>
@@ -30644,13 +30667,13 @@
     </row>
     <row r="220">
       <c r="A220" t="s" s="2">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="B220" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="C220" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="D220" s="2"/>
       <c r="E220" t="s" s="2">
@@ -30673,13 +30696,13 @@
         <v>72</v>
       </c>
       <c r="L220" t="s" s="2">
-        <v>92</v>
+        <v>142</v>
       </c>
       <c r="M220" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="N220" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="O220" s="2"/>
       <c r="P220" s="2"/>
@@ -30706,11 +30729,13 @@
         <v>72</v>
       </c>
       <c r="Y220" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="Z220" s="2"/>
+        <v>72</v>
+      </c>
+      <c r="Z220" t="s" s="2">
+        <v>72</v>
+      </c>
       <c r="AA220" t="s" s="2">
-        <v>108</v>
+        <v>72</v>
       </c>
       <c r="AB220" t="s" s="2">
         <v>72</v>
@@ -30728,7 +30753,7 @@
         <v>72</v>
       </c>
       <c r="AG220" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="AH220" t="s" s="2">
         <v>73</v>
@@ -30745,13 +30770,13 @@
     </row>
     <row r="221">
       <c r="A221" t="s" s="2">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="B221" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="C221" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="D221" s="2"/>
       <c r="E221" t="s" s="2">
@@ -30777,10 +30802,10 @@
         <v>92</v>
       </c>
       <c r="M221" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="N221" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="O221" s="2"/>
       <c r="P221" s="2"/>
@@ -30811,7 +30836,7 @@
       </c>
       <c r="Z221" s="2"/>
       <c r="AA221" t="s" s="2">
-        <v>382</v>
+        <v>108</v>
       </c>
       <c r="AB221" t="s" s="2">
         <v>72</v>
@@ -30829,7 +30854,7 @@
         <v>72</v>
       </c>
       <c r="AG221" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="AH221" t="s" s="2">
         <v>73</v>
@@ -30846,13 +30871,13 @@
     </row>
     <row r="222">
       <c r="A222" t="s" s="2">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="B222" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="C222" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="D222" s="2"/>
       <c r="E222" t="s" s="2">
@@ -30878,10 +30903,10 @@
         <v>92</v>
       </c>
       <c r="M222" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="N222" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="O222" s="2"/>
       <c r="P222" s="2"/>
@@ -30912,7 +30937,7 @@
       </c>
       <c r="Z222" s="2"/>
       <c r="AA222" t="s" s="2">
-        <v>530</v>
+        <v>382</v>
       </c>
       <c r="AB222" t="s" s="2">
         <v>72</v>
@@ -30930,7 +30955,7 @@
         <v>72</v>
       </c>
       <c r="AG222" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="AH222" t="s" s="2">
         <v>73</v>
@@ -30947,7 +30972,7 @@
     </row>
     <row r="223">
       <c r="A223" t="s" s="2">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="B223" t="s" s="2">
         <v>531</v>
@@ -31048,7 +31073,7 @@
     </row>
     <row r="224">
       <c r="A224" t="s" s="2">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="B224" t="s" s="2">
         <v>534</v>
@@ -31149,7 +31174,7 @@
     </row>
     <row r="225">
       <c r="A225" t="s" s="2">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="B225" t="s" s="2">
         <v>537</v>
@@ -31178,7 +31203,7 @@
         <v>72</v>
       </c>
       <c r="L225" t="s" s="2">
-        <v>142</v>
+        <v>92</v>
       </c>
       <c r="M225" t="s" s="2">
         <v>538</v>
@@ -31211,13 +31236,11 @@
         <v>72</v>
       </c>
       <c r="Y225" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Z225" t="s" s="2">
-        <v>72</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="Z225" s="2"/>
       <c r="AA225" t="s" s="2">
-        <v>72</v>
+        <v>539</v>
       </c>
       <c r="AB225" t="s" s="2">
         <v>72</v>
@@ -31252,13 +31275,13 @@
     </row>
     <row r="226">
       <c r="A226" t="s" s="2">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="B226" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="C226" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="D226" s="2"/>
       <c r="E226" t="s" s="2">
@@ -31284,10 +31307,10 @@
         <v>142</v>
       </c>
       <c r="M226" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="N226" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="O226" s="2"/>
       <c r="P226" s="2"/>
@@ -31338,7 +31361,7 @@
         <v>72</v>
       </c>
       <c r="AG226" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="AH226" t="s" s="2">
         <v>73</v>
@@ -31355,13 +31378,13 @@
     </row>
     <row r="227">
       <c r="A227" t="s" s="2">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="B227" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="C227" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="D227" s="2"/>
       <c r="E227" t="s" s="2">
@@ -31384,13 +31407,13 @@
         <v>72</v>
       </c>
       <c r="L227" t="s" s="2">
-        <v>92</v>
+        <v>142</v>
       </c>
       <c r="M227" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="N227" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="O227" s="2"/>
       <c r="P227" s="2"/>
@@ -31417,11 +31440,13 @@
         <v>72</v>
       </c>
       <c r="Y227" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="Z227" s="2"/>
+        <v>72</v>
+      </c>
+      <c r="Z227" t="s" s="2">
+        <v>72</v>
+      </c>
       <c r="AA227" t="s" s="2">
-        <v>543</v>
+        <v>72</v>
       </c>
       <c r="AB227" t="s" s="2">
         <v>72</v>
@@ -31439,7 +31464,7 @@
         <v>72</v>
       </c>
       <c r="AG227" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="AH227" t="s" s="2">
         <v>73</v>
@@ -31456,7 +31481,7 @@
     </row>
     <row r="228">
       <c r="A228" t="s" s="2">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="B228" t="s" s="2">
         <v>544</v>
@@ -31557,7 +31582,7 @@
     </row>
     <row r="229">
       <c r="A229" t="s" s="2">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="B229" t="s" s="2">
         <v>547</v>
@@ -31658,7 +31683,7 @@
     </row>
     <row r="230">
       <c r="A230" t="s" s="2">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="B230" t="s" s="2">
         <v>550</v>
@@ -31720,13 +31745,11 @@
         <v>72</v>
       </c>
       <c r="Y230" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Z230" t="s" s="2">
-        <v>72</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="Z230" s="2"/>
       <c r="AA230" t="s" s="2">
-        <v>72</v>
+        <v>552</v>
       </c>
       <c r="AB230" t="s" s="2">
         <v>72</v>
@@ -31761,13 +31784,13 @@
     </row>
     <row r="231">
       <c r="A231" t="s" s="2">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="B231" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="C231" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="D231" s="2"/>
       <c r="E231" t="s" s="2">
@@ -31790,7 +31813,7 @@
         <v>72</v>
       </c>
       <c r="L231" t="s" s="2">
-        <v>553</v>
+        <v>92</v>
       </c>
       <c r="M231" t="s" s="2">
         <v>554</v>
@@ -31847,7 +31870,7 @@
         <v>72</v>
       </c>
       <c r="AG231" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="AH231" t="s" s="2">
         <v>73</v>
@@ -31864,7 +31887,7 @@
     </row>
     <row r="232">
       <c r="A232" t="s" s="2">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="B232" t="s" s="2">
         <v>555</v>
@@ -31893,13 +31916,13 @@
         <v>72</v>
       </c>
       <c r="L232" t="s" s="2">
-        <v>553</v>
+        <v>556</v>
       </c>
       <c r="M232" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="N232" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="O232" s="2"/>
       <c r="P232" s="2"/>
@@ -31967,13 +31990,13 @@
     </row>
     <row r="233">
       <c r="A233" t="s" s="2">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="B233" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="C233" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="D233" s="2"/>
       <c r="E233" t="s" s="2">
@@ -31996,13 +32019,13 @@
         <v>72</v>
       </c>
       <c r="L233" t="s" s="2">
-        <v>553</v>
+        <v>556</v>
       </c>
       <c r="M233" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="N233" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="O233" s="2"/>
       <c r="P233" s="2"/>
@@ -32053,7 +32076,7 @@
         <v>72</v>
       </c>
       <c r="AG233" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="AH233" t="s" s="2">
         <v>73</v>
@@ -32070,13 +32093,13 @@
     </row>
     <row r="234">
       <c r="A234" t="s" s="2">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="B234" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="C234" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="D234" s="2"/>
       <c r="E234" t="s" s="2">
@@ -32099,13 +32122,13 @@
         <v>72</v>
       </c>
       <c r="L234" t="s" s="2">
-        <v>553</v>
+        <v>556</v>
       </c>
       <c r="M234" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="N234" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="O234" s="2"/>
       <c r="P234" s="2"/>
@@ -32156,7 +32179,7 @@
         <v>72</v>
       </c>
       <c r="AG234" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="AH234" t="s" s="2">
         <v>73</v>
@@ -32173,13 +32196,13 @@
     </row>
     <row r="235">
       <c r="A235" t="s" s="2">
-        <v>561</v>
+        <v>494</v>
       </c>
       <c r="B235" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="C235" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="D235" s="2"/>
       <c r="E235" t="s" s="2">
@@ -32190,7 +32213,7 @@
         <v>73</v>
       </c>
       <c r="H235" t="s" s="2">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="I235" t="s" s="2">
         <v>72</v>
@@ -32202,7 +32225,7 @@
         <v>72</v>
       </c>
       <c r="L235" t="s" s="2">
-        <v>75</v>
+        <v>556</v>
       </c>
       <c r="M235" t="s" s="2">
         <v>563</v>
@@ -32259,13 +32282,13 @@
         <v>72</v>
       </c>
       <c r="AG235" t="s" s="2">
-        <v>76</v>
+        <v>562</v>
       </c>
       <c r="AH235" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI235" t="s" s="2">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="AJ235" t="s" s="2">
         <v>72</v>
@@ -32276,7 +32299,7 @@
     </row>
     <row r="236">
       <c r="A236" t="s" s="2">
-        <v>561</v>
+        <v>564</v>
       </c>
       <c r="B236" t="s" s="2">
         <v>564</v>
@@ -32293,7 +32316,7 @@
         <v>73</v>
       </c>
       <c r="H236" t="s" s="2">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="I236" t="s" s="2">
         <v>72</v>
@@ -32305,13 +32328,13 @@
         <v>72</v>
       </c>
       <c r="L236" t="s" s="2">
-        <v>449</v>
+        <v>75</v>
       </c>
       <c r="M236" t="s" s="2">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="N236" t="s" s="2">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="O236" s="2"/>
       <c r="P236" s="2"/>
@@ -32362,13 +32385,13 @@
         <v>72</v>
       </c>
       <c r="AG236" t="s" s="2">
-        <v>564</v>
+        <v>76</v>
       </c>
       <c r="AH236" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI236" t="s" s="2">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="AJ236" t="s" s="2">
         <v>72</v>
@@ -32379,13 +32402,13 @@
     </row>
     <row r="237">
       <c r="A237" t="s" s="2">
-        <v>561</v>
+        <v>564</v>
       </c>
       <c r="B237" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="C237" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="D237" s="2"/>
       <c r="E237" t="s" s="2">
@@ -32408,13 +32431,13 @@
         <v>72</v>
       </c>
       <c r="L237" t="s" s="2">
-        <v>92</v>
+        <v>452</v>
       </c>
       <c r="M237" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="N237" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="O237" s="2"/>
       <c r="P237" s="2"/>
@@ -32441,11 +32464,13 @@
         <v>72</v>
       </c>
       <c r="Y237" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="Z237" s="2"/>
+        <v>72</v>
+      </c>
+      <c r="Z237" t="s" s="2">
+        <v>72</v>
+      </c>
       <c r="AA237" t="s" s="2">
-        <v>568</v>
+        <v>72</v>
       </c>
       <c r="AB237" t="s" s="2">
         <v>72</v>
@@ -32463,7 +32488,7 @@
         <v>72</v>
       </c>
       <c r="AG237" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="AH237" t="s" s="2">
         <v>73</v>
@@ -32480,7 +32505,7 @@
     </row>
     <row r="238">
       <c r="A238" t="s" s="2">
-        <v>561</v>
+        <v>564</v>
       </c>
       <c r="B238" t="s" s="2">
         <v>569</v>
@@ -32509,7 +32534,7 @@
         <v>72</v>
       </c>
       <c r="L238" t="s" s="2">
-        <v>449</v>
+        <v>92</v>
       </c>
       <c r="M238" t="s" s="2">
         <v>570</v>
@@ -32542,13 +32567,11 @@
         <v>72</v>
       </c>
       <c r="Y238" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Z238" t="s" s="2">
-        <v>72</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="Z238" s="2"/>
       <c r="AA238" t="s" s="2">
-        <v>72</v>
+        <v>571</v>
       </c>
       <c r="AB238" t="s" s="2">
         <v>72</v>
@@ -32583,13 +32606,13 @@
     </row>
     <row r="239">
       <c r="A239" t="s" s="2">
-        <v>561</v>
+        <v>564</v>
       </c>
       <c r="B239" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="C239" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="D239" s="2"/>
       <c r="E239" t="s" s="2">
@@ -32612,7 +32635,7 @@
         <v>72</v>
       </c>
       <c r="L239" t="s" s="2">
-        <v>572</v>
+        <v>452</v>
       </c>
       <c r="M239" t="s" s="2">
         <v>573</v>
@@ -32669,7 +32692,7 @@
         <v>72</v>
       </c>
       <c r="AG239" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="AH239" t="s" s="2">
         <v>73</v>
@@ -32686,7 +32709,7 @@
     </row>
     <row r="240">
       <c r="A240" t="s" s="2">
-        <v>561</v>
+        <v>564</v>
       </c>
       <c r="B240" t="s" s="2">
         <v>574</v>
@@ -32703,7 +32726,7 @@
         <v>73</v>
       </c>
       <c r="H240" t="s" s="2">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="I240" t="s" s="2">
         <v>72</v>
@@ -32715,13 +32738,13 @@
         <v>72</v>
       </c>
       <c r="L240" t="s" s="2">
-        <v>413</v>
+        <v>575</v>
       </c>
       <c r="M240" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="N240" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="O240" s="2"/>
       <c r="P240" s="2"/>
@@ -32778,7 +32801,7 @@
         <v>73</v>
       </c>
       <c r="AI240" t="s" s="2">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="AJ240" t="s" s="2">
         <v>72</v>
@@ -32789,13 +32812,13 @@
     </row>
     <row r="241">
       <c r="A241" t="s" s="2">
-        <v>561</v>
+        <v>564</v>
       </c>
       <c r="B241" t="s" s="2">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="C241" t="s" s="2">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="D241" s="2"/>
       <c r="E241" t="s" s="2">
@@ -32818,7 +32841,7 @@
         <v>72</v>
       </c>
       <c r="L241" t="s" s="2">
-        <v>577</v>
+        <v>413</v>
       </c>
       <c r="M241" t="s" s="2">
         <v>578</v>
@@ -32875,7 +32898,7 @@
         <v>72</v>
       </c>
       <c r="AG241" t="s" s="2">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="AH241" t="s" s="2">
         <v>73</v>
@@ -32892,7 +32915,7 @@
     </row>
     <row r="242">
       <c r="A242" t="s" s="2">
-        <v>561</v>
+        <v>564</v>
       </c>
       <c r="B242" t="s" s="2">
         <v>579</v>
@@ -32921,13 +32944,13 @@
         <v>72</v>
       </c>
       <c r="L242" t="s" s="2">
-        <v>165</v>
+        <v>580</v>
       </c>
       <c r="M242" t="s" s="2">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="N242" t="s" s="2">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="O242" s="2"/>
       <c r="P242" s="2"/>
@@ -32995,13 +33018,13 @@
     </row>
     <row r="243">
       <c r="A243" t="s" s="2">
-        <v>561</v>
+        <v>564</v>
       </c>
       <c r="B243" t="s" s="2">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="C243" t="s" s="2">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="D243" s="2"/>
       <c r="E243" t="s" s="2">
@@ -33024,13 +33047,13 @@
         <v>72</v>
       </c>
       <c r="L243" t="s" s="2">
-        <v>384</v>
+        <v>165</v>
       </c>
       <c r="M243" t="s" s="2">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="N243" t="s" s="2">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="O243" s="2"/>
       <c r="P243" s="2"/>
@@ -33081,7 +33104,7 @@
         <v>72</v>
       </c>
       <c r="AG243" t="s" s="2">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="AH243" t="s" s="2">
         <v>73</v>
@@ -33098,13 +33121,13 @@
     </row>
     <row r="244">
       <c r="A244" t="s" s="2">
-        <v>583</v>
+        <v>564</v>
       </c>
       <c r="B244" t="s" s="2">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="C244" t="s" s="2">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="D244" s="2"/>
       <c r="E244" t="s" s="2">
@@ -33127,7 +33150,7 @@
         <v>72</v>
       </c>
       <c r="L244" t="s" s="2">
-        <v>75</v>
+        <v>384</v>
       </c>
       <c r="M244" t="s" s="2">
         <v>585</v>
@@ -33184,7 +33207,7 @@
         <v>72</v>
       </c>
       <c r="AG244" t="s" s="2">
-        <v>76</v>
+        <v>584</v>
       </c>
       <c r="AH244" t="s" s="2">
         <v>73</v>
@@ -33201,7 +33224,7 @@
     </row>
     <row r="245">
       <c r="A245" t="s" s="2">
-        <v>583</v>
+        <v>586</v>
       </c>
       <c r="B245" t="s" s="2">
         <v>586</v>
@@ -33218,7 +33241,7 @@
         <v>73</v>
       </c>
       <c r="H245" t="s" s="2">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="I245" t="s" s="2">
         <v>72</v>
@@ -33230,13 +33253,13 @@
         <v>72</v>
       </c>
       <c r="L245" t="s" s="2">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="M245" t="s" s="2">
-        <v>198</v>
+        <v>588</v>
       </c>
       <c r="N245" t="s" s="2">
-        <v>198</v>
+        <v>588</v>
       </c>
       <c r="O245" s="2"/>
       <c r="P245" s="2"/>
@@ -33263,11 +33286,13 @@
         <v>72</v>
       </c>
       <c r="Y245" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="Z245" s="2"/>
+        <v>72</v>
+      </c>
+      <c r="Z245" t="s" s="2">
+        <v>72</v>
+      </c>
       <c r="AA245" t="s" s="2">
-        <v>199</v>
+        <v>72</v>
       </c>
       <c r="AB245" t="s" s="2">
         <v>72</v>
@@ -33285,13 +33310,13 @@
         <v>72</v>
       </c>
       <c r="AG245" t="s" s="2">
-        <v>200</v>
+        <v>76</v>
       </c>
       <c r="AH245" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI245" t="s" s="2">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="AJ245" t="s" s="2">
         <v>72</v>
@@ -33302,13 +33327,13 @@
     </row>
     <row r="246">
       <c r="A246" t="s" s="2">
-        <v>583</v>
+        <v>586</v>
       </c>
       <c r="B246" t="s" s="2">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="C246" t="s" s="2">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="D246" s="2"/>
       <c r="E246" t="s" s="2">
@@ -33331,13 +33356,13 @@
         <v>72</v>
       </c>
       <c r="L246" t="s" s="2">
-        <v>142</v>
+        <v>92</v>
       </c>
       <c r="M246" t="s" s="2">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="N246" t="s" s="2">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="O246" s="2"/>
       <c r="P246" s="2"/>
@@ -33364,13 +33389,11 @@
         <v>72</v>
       </c>
       <c r="Y246" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Z246" t="s" s="2">
-        <v>72</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="Z246" s="2"/>
       <c r="AA246" t="s" s="2">
-        <v>72</v>
+        <v>199</v>
       </c>
       <c r="AB246" t="s" s="2">
         <v>72</v>
@@ -33388,7 +33411,7 @@
         <v>72</v>
       </c>
       <c r="AG246" t="s" s="2">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="AH246" t="s" s="2">
         <v>73</v>
@@ -33405,13 +33428,13 @@
     </row>
     <row r="247">
       <c r="A247" t="s" s="2">
-        <v>583</v>
+        <v>586</v>
       </c>
       <c r="B247" t="s" s="2">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="C247" t="s" s="2">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="D247" s="2"/>
       <c r="E247" t="s" s="2">
@@ -33437,10 +33460,10 @@
         <v>142</v>
       </c>
       <c r="M247" t="s" s="2">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="N247" t="s" s="2">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="O247" s="2"/>
       <c r="P247" s="2"/>
@@ -33491,7 +33514,7 @@
         <v>72</v>
       </c>
       <c r="AG247" t="s" s="2">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="AH247" t="s" s="2">
         <v>73</v>
@@ -33508,13 +33531,13 @@
     </row>
     <row r="248">
       <c r="A248" t="s" s="2">
-        <v>583</v>
+        <v>586</v>
       </c>
       <c r="B248" t="s" s="2">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="C248" t="s" s="2">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="D248" s="2"/>
       <c r="E248" t="s" s="2">
@@ -33537,13 +33560,13 @@
         <v>72</v>
       </c>
       <c r="L248" t="s" s="2">
-        <v>92</v>
+        <v>142</v>
       </c>
       <c r="M248" t="s" s="2">
-        <v>590</v>
+        <v>205</v>
       </c>
       <c r="N248" t="s" s="2">
-        <v>590</v>
+        <v>205</v>
       </c>
       <c r="O248" s="2"/>
       <c r="P248" s="2"/>
@@ -33570,11 +33593,13 @@
         <v>72</v>
       </c>
       <c r="Y248" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="Z248" s="2"/>
+        <v>72</v>
+      </c>
+      <c r="Z248" t="s" s="2">
+        <v>72</v>
+      </c>
       <c r="AA248" t="s" s="2">
-        <v>591</v>
+        <v>72</v>
       </c>
       <c r="AB248" t="s" s="2">
         <v>72</v>
@@ -33592,7 +33617,7 @@
         <v>72</v>
       </c>
       <c r="AG248" t="s" s="2">
-        <v>589</v>
+        <v>206</v>
       </c>
       <c r="AH248" t="s" s="2">
         <v>73</v>
@@ -33609,7 +33634,7 @@
     </row>
     <row r="249">
       <c r="A249" t="s" s="2">
-        <v>592</v>
+        <v>586</v>
       </c>
       <c r="B249" t="s" s="2">
         <v>592</v>
@@ -33626,7 +33651,7 @@
         <v>73</v>
       </c>
       <c r="H249" t="s" s="2">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="I249" t="s" s="2">
         <v>72</v>
@@ -33638,7 +33663,7 @@
         <v>72</v>
       </c>
       <c r="L249" t="s" s="2">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="M249" t="s" s="2">
         <v>593</v>
@@ -33671,13 +33696,11 @@
         <v>72</v>
       </c>
       <c r="Y249" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Z249" t="s" s="2">
-        <v>72</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="Z249" s="2"/>
       <c r="AA249" t="s" s="2">
-        <v>72</v>
+        <v>594</v>
       </c>
       <c r="AB249" t="s" s="2">
         <v>72</v>
@@ -33695,13 +33718,13 @@
         <v>72</v>
       </c>
       <c r="AG249" t="s" s="2">
-        <v>76</v>
+        <v>592</v>
       </c>
       <c r="AH249" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI249" t="s" s="2">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="AJ249" t="s" s="2">
         <v>72</v>
@@ -33712,13 +33735,13 @@
     </row>
     <row r="250">
       <c r="A250" t="s" s="2">
-        <v>592</v>
+        <v>595</v>
       </c>
       <c r="B250" t="s" s="2">
-        <v>200</v>
+        <v>595</v>
       </c>
       <c r="C250" t="s" s="2">
-        <v>200</v>
+        <v>595</v>
       </c>
       <c r="D250" s="2"/>
       <c r="E250" t="s" s="2">
@@ -33729,7 +33752,7 @@
         <v>73</v>
       </c>
       <c r="H250" t="s" s="2">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="I250" t="s" s="2">
         <v>72</v>
@@ -33741,13 +33764,13 @@
         <v>72</v>
       </c>
       <c r="L250" t="s" s="2">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="M250" t="s" s="2">
-        <v>198</v>
+        <v>596</v>
       </c>
       <c r="N250" t="s" s="2">
-        <v>198</v>
+        <v>596</v>
       </c>
       <c r="O250" s="2"/>
       <c r="P250" s="2"/>
@@ -33774,11 +33797,13 @@
         <v>72</v>
       </c>
       <c r="Y250" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="Z250" s="2"/>
+        <v>72</v>
+      </c>
+      <c r="Z250" t="s" s="2">
+        <v>72</v>
+      </c>
       <c r="AA250" t="s" s="2">
-        <v>199</v>
+        <v>72</v>
       </c>
       <c r="AB250" t="s" s="2">
         <v>72</v>
@@ -33796,13 +33821,13 @@
         <v>72</v>
       </c>
       <c r="AG250" t="s" s="2">
-        <v>200</v>
+        <v>76</v>
       </c>
       <c r="AH250" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI250" t="s" s="2">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="AJ250" t="s" s="2">
         <v>72</v>
@@ -33813,13 +33838,13 @@
     </row>
     <row r="251">
       <c r="A251" t="s" s="2">
-        <v>592</v>
+        <v>595</v>
       </c>
       <c r="B251" t="s" s="2">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C251" t="s" s="2">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D251" s="2"/>
       <c r="E251" t="s" s="2">
@@ -33842,13 +33867,13 @@
         <v>72</v>
       </c>
       <c r="L251" t="s" s="2">
-        <v>142</v>
+        <v>92</v>
       </c>
       <c r="M251" t="s" s="2">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="N251" t="s" s="2">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="O251" s="2"/>
       <c r="P251" s="2"/>
@@ -33875,13 +33900,11 @@
         <v>72</v>
       </c>
       <c r="Y251" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Z251" t="s" s="2">
-        <v>72</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="Z251" s="2"/>
       <c r="AA251" t="s" s="2">
-        <v>72</v>
+        <v>199</v>
       </c>
       <c r="AB251" t="s" s="2">
         <v>72</v>
@@ -33899,7 +33922,7 @@
         <v>72</v>
       </c>
       <c r="AG251" t="s" s="2">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="AH251" t="s" s="2">
         <v>73</v>
@@ -33916,13 +33939,13 @@
     </row>
     <row r="252">
       <c r="A252" t="s" s="2">
-        <v>592</v>
+        <v>595</v>
       </c>
       <c r="B252" t="s" s="2">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C252" t="s" s="2">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D252" s="2"/>
       <c r="E252" t="s" s="2">
@@ -33948,10 +33971,10 @@
         <v>142</v>
       </c>
       <c r="M252" t="s" s="2">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="N252" t="s" s="2">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="O252" s="2"/>
       <c r="P252" s="2"/>
@@ -34002,7 +34025,7 @@
         <v>72</v>
       </c>
       <c r="AG252" t="s" s="2">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="AH252" t="s" s="2">
         <v>73</v>
@@ -34019,13 +34042,13 @@
     </row>
     <row r="253">
       <c r="A253" t="s" s="2">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="B253" t="s" s="2">
-        <v>594</v>
+        <v>206</v>
       </c>
       <c r="C253" t="s" s="2">
-        <v>594</v>
+        <v>206</v>
       </c>
       <c r="D253" s="2"/>
       <c r="E253" t="s" s="2">
@@ -34036,7 +34059,7 @@
         <v>73</v>
       </c>
       <c r="H253" t="s" s="2">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="I253" t="s" s="2">
         <v>72</v>
@@ -34048,13 +34071,13 @@
         <v>72</v>
       </c>
       <c r="L253" t="s" s="2">
-        <v>75</v>
+        <v>142</v>
       </c>
       <c r="M253" t="s" s="2">
-        <v>596</v>
+        <v>205</v>
       </c>
       <c r="N253" t="s" s="2">
-        <v>596</v>
+        <v>205</v>
       </c>
       <c r="O253" s="2"/>
       <c r="P253" s="2"/>
@@ -34105,13 +34128,13 @@
         <v>72</v>
       </c>
       <c r="AG253" t="s" s="2">
-        <v>76</v>
+        <v>206</v>
       </c>
       <c r="AH253" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI253" t="s" s="2">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="AJ253" t="s" s="2">
         <v>72</v>
@@ -34122,7 +34145,7 @@
     </row>
     <row r="254">
       <c r="A254" t="s" s="2">
-        <v>594</v>
+        <v>597</v>
       </c>
       <c r="B254" t="s" s="2">
         <v>597</v>
@@ -34139,7 +34162,7 @@
         <v>73</v>
       </c>
       <c r="H254" t="s" s="2">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="I254" t="s" s="2">
         <v>72</v>
@@ -34151,13 +34174,13 @@
         <v>72</v>
       </c>
       <c r="L254" t="s" s="2">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="M254" t="s" s="2">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="N254" t="s" s="2">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="O254" s="2"/>
       <c r="P254" s="2"/>
@@ -34184,11 +34207,13 @@
         <v>72</v>
       </c>
       <c r="Y254" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="Z254" s="2"/>
+        <v>72</v>
+      </c>
+      <c r="Z254" t="s" s="2">
+        <v>72</v>
+      </c>
       <c r="AA254" t="s" s="2">
-        <v>599</v>
+        <v>72</v>
       </c>
       <c r="AB254" t="s" s="2">
         <v>72</v>
@@ -34206,13 +34231,13 @@
         <v>72</v>
       </c>
       <c r="AG254" t="s" s="2">
-        <v>597</v>
+        <v>76</v>
       </c>
       <c r="AH254" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI254" t="s" s="2">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="AJ254" t="s" s="2">
         <v>72</v>
@@ -34223,7 +34248,7 @@
     </row>
     <row r="255">
       <c r="A255" t="s" s="2">
-        <v>594</v>
+        <v>597</v>
       </c>
       <c r="B255" t="s" s="2">
         <v>600</v>
@@ -34324,7 +34349,7 @@
     </row>
     <row r="256">
       <c r="A256" t="s" s="2">
-        <v>594</v>
+        <v>597</v>
       </c>
       <c r="B256" t="s" s="2">
         <v>603</v>
@@ -34425,7 +34450,7 @@
     </row>
     <row r="257">
       <c r="A257" t="s" s="2">
-        <v>594</v>
+        <v>597</v>
       </c>
       <c r="B257" t="s" s="2">
         <v>606</v>
@@ -34454,7 +34479,7 @@
         <v>72</v>
       </c>
       <c r="L257" t="s" s="2">
-        <v>449</v>
+        <v>92</v>
       </c>
       <c r="M257" t="s" s="2">
         <v>607</v>
@@ -34487,13 +34512,11 @@
         <v>72</v>
       </c>
       <c r="Y257" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Z257" t="s" s="2">
-        <v>72</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="Z257" s="2"/>
       <c r="AA257" t="s" s="2">
-        <v>72</v>
+        <v>608</v>
       </c>
       <c r="AB257" t="s" s="2">
         <v>72</v>
@@ -34528,13 +34551,13 @@
     </row>
     <row r="258">
       <c r="A258" t="s" s="2">
-        <v>594</v>
+        <v>597</v>
       </c>
       <c r="B258" t="s" s="2">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="C258" t="s" s="2">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="D258" s="2"/>
       <c r="E258" t="s" s="2">
@@ -34557,13 +34580,13 @@
         <v>72</v>
       </c>
       <c r="L258" t="s" s="2">
-        <v>142</v>
+        <v>452</v>
       </c>
       <c r="M258" t="s" s="2">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="N258" t="s" s="2">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="O258" s="2"/>
       <c r="P258" s="2"/>
@@ -34614,7 +34637,7 @@
         <v>72</v>
       </c>
       <c r="AG258" t="s" s="2">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="AH258" t="s" s="2">
         <v>73</v>
@@ -34631,13 +34654,13 @@
     </row>
     <row r="259">
       <c r="A259" t="s" s="2">
-        <v>594</v>
+        <v>597</v>
       </c>
       <c r="B259" t="s" s="2">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="C259" t="s" s="2">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="D259" s="2"/>
       <c r="E259" t="s" s="2">
@@ -34663,10 +34686,10 @@
         <v>142</v>
       </c>
       <c r="M259" t="s" s="2">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="N259" t="s" s="2">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="O259" s="2"/>
       <c r="P259" s="2"/>
@@ -34717,7 +34740,7 @@
         <v>72</v>
       </c>
       <c r="AG259" t="s" s="2">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="AH259" t="s" s="2">
         <v>73</v>
@@ -34734,13 +34757,13 @@
     </row>
     <row r="260">
       <c r="A260" t="s" s="2">
-        <v>594</v>
+        <v>597</v>
       </c>
       <c r="B260" t="s" s="2">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="C260" t="s" s="2">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="D260" s="2"/>
       <c r="E260" t="s" s="2">
@@ -34763,13 +34786,13 @@
         <v>72</v>
       </c>
       <c r="L260" t="s" s="2">
-        <v>92</v>
+        <v>142</v>
       </c>
       <c r="M260" t="s" s="2">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="N260" t="s" s="2">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="O260" s="2"/>
       <c r="P260" s="2"/>
@@ -34796,11 +34819,13 @@
         <v>72</v>
       </c>
       <c r="Y260" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="Z260" s="2"/>
+        <v>72</v>
+      </c>
+      <c r="Z260" t="s" s="2">
+        <v>72</v>
+      </c>
       <c r="AA260" t="s" s="2">
-        <v>614</v>
+        <v>72</v>
       </c>
       <c r="AB260" t="s" s="2">
         <v>72</v>
@@ -34818,7 +34843,7 @@
         <v>72</v>
       </c>
       <c r="AG260" t="s" s="2">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="AH260" t="s" s="2">
         <v>73</v>
@@ -34835,7 +34860,7 @@
     </row>
     <row r="261">
       <c r="A261" t="s" s="2">
-        <v>594</v>
+        <v>597</v>
       </c>
       <c r="B261" t="s" s="2">
         <v>615</v>
@@ -34936,7 +34961,7 @@
     </row>
     <row r="262">
       <c r="A262" t="s" s="2">
-        <v>594</v>
+        <v>597</v>
       </c>
       <c r="B262" t="s" s="2">
         <v>618</v>
@@ -35037,7 +35062,7 @@
     </row>
     <row r="263">
       <c r="A263" t="s" s="2">
-        <v>594</v>
+        <v>597</v>
       </c>
       <c r="B263" t="s" s="2">
         <v>621</v>
@@ -35138,7 +35163,7 @@
     </row>
     <row r="264">
       <c r="A264" t="s" s="2">
-        <v>594</v>
+        <v>597</v>
       </c>
       <c r="B264" t="s" s="2">
         <v>624</v>
@@ -35239,7 +35264,7 @@
     </row>
     <row r="265">
       <c r="A265" t="s" s="2">
-        <v>594</v>
+        <v>597</v>
       </c>
       <c r="B265" t="s" s="2">
         <v>627</v>
@@ -35340,7 +35365,7 @@
     </row>
     <row r="266">
       <c r="A266" t="s" s="2">
-        <v>594</v>
+        <v>597</v>
       </c>
       <c r="B266" t="s" s="2">
         <v>630</v>
@@ -35441,7 +35466,7 @@
     </row>
     <row r="267">
       <c r="A267" t="s" s="2">
-        <v>594</v>
+        <v>597</v>
       </c>
       <c r="B267" t="s" s="2">
         <v>633</v>
@@ -35458,7 +35483,7 @@
         <v>73</v>
       </c>
       <c r="H267" t="s" s="2">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="I267" t="s" s="2">
         <v>72</v>
@@ -35470,7 +35495,7 @@
         <v>72</v>
       </c>
       <c r="L267" t="s" s="2">
-        <v>165</v>
+        <v>92</v>
       </c>
       <c r="M267" t="s" s="2">
         <v>634</v>
@@ -35503,13 +35528,11 @@
         <v>72</v>
       </c>
       <c r="Y267" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Z267" t="s" s="2">
-        <v>72</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="Z267" s="2"/>
       <c r="AA267" t="s" s="2">
-        <v>72</v>
+        <v>635</v>
       </c>
       <c r="AB267" t="s" s="2">
         <v>72</v>
@@ -35533,7 +35556,7 @@
         <v>73</v>
       </c>
       <c r="AI267" t="s" s="2">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="AJ267" t="s" s="2">
         <v>72</v>
@@ -35544,13 +35567,13 @@
     </row>
     <row r="268">
       <c r="A268" t="s" s="2">
-        <v>594</v>
+        <v>597</v>
       </c>
       <c r="B268" t="s" s="2">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="C268" t="s" s="2">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="D268" s="2"/>
       <c r="E268" t="s" s="2">
@@ -35573,13 +35596,13 @@
         <v>72</v>
       </c>
       <c r="L268" t="s" s="2">
-        <v>577</v>
+        <v>165</v>
       </c>
       <c r="M268" t="s" s="2">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="N268" t="s" s="2">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="O268" s="2"/>
       <c r="P268" s="2"/>
@@ -35630,7 +35653,7 @@
         <v>72</v>
       </c>
       <c r="AG268" t="s" s="2">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="AH268" t="s" s="2">
         <v>73</v>
@@ -35647,13 +35670,13 @@
     </row>
     <row r="269">
       <c r="A269" t="s" s="2">
-        <v>594</v>
+        <v>597</v>
       </c>
       <c r="B269" t="s" s="2">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="C269" t="s" s="2">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="D269" s="2"/>
       <c r="E269" t="s" s="2">
@@ -35676,13 +35699,13 @@
         <v>72</v>
       </c>
       <c r="L269" t="s" s="2">
-        <v>384</v>
+        <v>580</v>
       </c>
       <c r="M269" t="s" s="2">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="N269" t="s" s="2">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="O269" s="2"/>
       <c r="P269" s="2"/>
@@ -35733,7 +35756,7 @@
         <v>72</v>
       </c>
       <c r="AG269" t="s" s="2">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="AH269" t="s" s="2">
         <v>73</v>
@@ -35750,13 +35773,13 @@
     </row>
     <row r="270">
       <c r="A270" t="s" s="2">
-        <v>639</v>
+        <v>597</v>
       </c>
       <c r="B270" t="s" s="2">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="C270" t="s" s="2">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="D270" s="2"/>
       <c r="E270" t="s" s="2">
@@ -35779,7 +35802,7 @@
         <v>72</v>
       </c>
       <c r="L270" t="s" s="2">
-        <v>75</v>
+        <v>384</v>
       </c>
       <c r="M270" t="s" s="2">
         <v>641</v>
@@ -35836,7 +35859,7 @@
         <v>72</v>
       </c>
       <c r="AG270" t="s" s="2">
-        <v>76</v>
+        <v>640</v>
       </c>
       <c r="AH270" t="s" s="2">
         <v>73</v>
@@ -35853,7 +35876,7 @@
     </row>
     <row r="271">
       <c r="A271" t="s" s="2">
-        <v>639</v>
+        <v>597</v>
       </c>
       <c r="B271" t="s" s="2">
         <v>642</v>
@@ -35867,7 +35890,7 @@
       </c>
       <c r="F271" s="2"/>
       <c r="G271" t="s" s="2">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="H271" t="s" s="2">
         <v>78</v>
@@ -35882,13 +35905,13 @@
         <v>72</v>
       </c>
       <c r="L271" t="s" s="2">
-        <v>449</v>
+        <v>643</v>
       </c>
       <c r="M271" t="s" s="2">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="N271" t="s" s="2">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="O271" s="2"/>
       <c r="P271" s="2"/>
@@ -35942,7 +35965,7 @@
         <v>642</v>
       </c>
       <c r="AH271" t="s" s="2">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="AI271" t="s" s="2">
         <v>78</v>
@@ -35956,13 +35979,13 @@
     </row>
     <row r="272">
       <c r="A272" t="s" s="2">
-        <v>639</v>
+        <v>645</v>
       </c>
       <c r="B272" t="s" s="2">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="C272" t="s" s="2">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="D272" s="2"/>
       <c r="E272" t="s" s="2">
@@ -35973,7 +35996,7 @@
         <v>73</v>
       </c>
       <c r="H272" t="s" s="2">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="I272" t="s" s="2">
         <v>72</v>
@@ -35985,13 +36008,13 @@
         <v>72</v>
       </c>
       <c r="L272" t="s" s="2">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="M272" t="s" s="2">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="N272" t="s" s="2">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="O272" s="2"/>
       <c r="P272" s="2"/>
@@ -36018,11 +36041,13 @@
         <v>72</v>
       </c>
       <c r="Y272" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="Z272" s="2"/>
+        <v>72</v>
+      </c>
+      <c r="Z272" t="s" s="2">
+        <v>72</v>
+      </c>
       <c r="AA272" t="s" s="2">
-        <v>605</v>
+        <v>72</v>
       </c>
       <c r="AB272" t="s" s="2">
         <v>72</v>
@@ -36040,13 +36065,13 @@
         <v>72</v>
       </c>
       <c r="AG272" t="s" s="2">
-        <v>644</v>
+        <v>76</v>
       </c>
       <c r="AH272" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI272" t="s" s="2">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="AJ272" t="s" s="2">
         <v>72</v>
@@ -36057,13 +36082,13 @@
     </row>
     <row r="273">
       <c r="A273" t="s" s="2">
-        <v>639</v>
+        <v>645</v>
       </c>
       <c r="B273" t="s" s="2">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="C273" t="s" s="2">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="D273" s="2"/>
       <c r="E273" t="s" s="2">
@@ -36074,7 +36099,7 @@
         <v>73</v>
       </c>
       <c r="H273" t="s" s="2">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="I273" t="s" s="2">
         <v>72</v>
@@ -36086,13 +36111,13 @@
         <v>72</v>
       </c>
       <c r="L273" t="s" s="2">
-        <v>92</v>
+        <v>452</v>
       </c>
       <c r="M273" t="s" s="2">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="N273" t="s" s="2">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="O273" s="2"/>
       <c r="P273" s="2"/>
@@ -36119,35 +36144,37 @@
         <v>72</v>
       </c>
       <c r="Y273" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="Z273" s="2"/>
+        <v>72</v>
+      </c>
+      <c r="Z273" t="s" s="2">
+        <v>72</v>
+      </c>
       <c r="AA273" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB273" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC273" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD273" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE273" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AF273" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG273" t="s" s="2">
         <v>648</v>
       </c>
-      <c r="AB273" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC273" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD273" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AE273" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AF273" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AG273" t="s" s="2">
-        <v>646</v>
-      </c>
       <c r="AH273" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI273" t="s" s="2">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="AJ273" t="s" s="2">
         <v>72</v>
@@ -36158,13 +36185,13 @@
     </row>
     <row r="274">
       <c r="A274" t="s" s="2">
-        <v>639</v>
+        <v>645</v>
       </c>
       <c r="B274" t="s" s="2">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="C274" t="s" s="2">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="D274" s="2"/>
       <c r="E274" t="s" s="2">
@@ -36187,7 +36214,7 @@
         <v>72</v>
       </c>
       <c r="L274" t="s" s="2">
-        <v>650</v>
+        <v>92</v>
       </c>
       <c r="M274" t="s" s="2">
         <v>651</v>
@@ -36220,13 +36247,11 @@
         <v>72</v>
       </c>
       <c r="Y274" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Z274" t="s" s="2">
-        <v>72</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="Z274" s="2"/>
       <c r="AA274" t="s" s="2">
-        <v>72</v>
+        <v>608</v>
       </c>
       <c r="AB274" t="s" s="2">
         <v>72</v>
@@ -36244,7 +36269,7 @@
         <v>72</v>
       </c>
       <c r="AG274" t="s" s="2">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="AH274" t="s" s="2">
         <v>73</v>
@@ -36261,7 +36286,7 @@
     </row>
     <row r="275">
       <c r="A275" t="s" s="2">
-        <v>639</v>
+        <v>645</v>
       </c>
       <c r="B275" t="s" s="2">
         <v>652</v>
@@ -36278,7 +36303,7 @@
         <v>73</v>
       </c>
       <c r="H275" t="s" s="2">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="I275" t="s" s="2">
         <v>72</v>
@@ -36351,7 +36376,7 @@
         <v>73</v>
       </c>
       <c r="AI275" t="s" s="2">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="AJ275" t="s" s="2">
         <v>72</v>
@@ -36362,7 +36387,7 @@
     </row>
     <row r="276">
       <c r="A276" t="s" s="2">
-        <v>639</v>
+        <v>645</v>
       </c>
       <c r="B276" t="s" s="2">
         <v>655</v>
@@ -36391,13 +36416,13 @@
         <v>72</v>
       </c>
       <c r="L276" t="s" s="2">
-        <v>179</v>
+        <v>656</v>
       </c>
       <c r="M276" t="s" s="2">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="N276" t="s" s="2">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="O276" s="2"/>
       <c r="P276" s="2"/>
@@ -36465,13 +36490,13 @@
     </row>
     <row r="277">
       <c r="A277" t="s" s="2">
-        <v>639</v>
+        <v>645</v>
       </c>
       <c r="B277" t="s" s="2">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="C277" t="s" s="2">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="D277" s="2"/>
       <c r="E277" t="s" s="2">
@@ -36494,13 +36519,13 @@
         <v>72</v>
       </c>
       <c r="L277" t="s" s="2">
-        <v>179</v>
+        <v>92</v>
       </c>
       <c r="M277" t="s" s="2">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="N277" t="s" s="2">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="O277" s="2"/>
       <c r="P277" s="2"/>
@@ -36527,13 +36552,11 @@
         <v>72</v>
       </c>
       <c r="Y277" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Z277" t="s" s="2">
-        <v>72</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="Z277" s="2"/>
       <c r="AA277" t="s" s="2">
-        <v>72</v>
+        <v>660</v>
       </c>
       <c r="AB277" t="s" s="2">
         <v>72</v>
@@ -36551,7 +36574,7 @@
         <v>72</v>
       </c>
       <c r="AG277" t="s" s="2">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="AH277" t="s" s="2">
         <v>73</v>
@@ -36568,13 +36591,13 @@
     </row>
     <row r="278">
       <c r="A278" t="s" s="2">
-        <v>639</v>
+        <v>645</v>
       </c>
       <c r="B278" t="s" s="2">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="C278" t="s" s="2">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="D278" s="2"/>
       <c r="E278" t="s" s="2">
@@ -36597,13 +36620,13 @@
         <v>72</v>
       </c>
       <c r="L278" t="s" s="2">
-        <v>165</v>
+        <v>179</v>
       </c>
       <c r="M278" t="s" s="2">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="N278" t="s" s="2">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="O278" s="2"/>
       <c r="P278" s="2"/>
@@ -36654,7 +36677,7 @@
         <v>72</v>
       </c>
       <c r="AG278" t="s" s="2">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="AH278" t="s" s="2">
         <v>73</v>
@@ -36671,13 +36694,13 @@
     </row>
     <row r="279">
       <c r="A279" t="s" s="2">
-        <v>661</v>
+        <v>645</v>
       </c>
       <c r="B279" t="s" s="2">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="C279" t="s" s="2">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="D279" s="2"/>
       <c r="E279" t="s" s="2">
@@ -36688,7 +36711,7 @@
         <v>73</v>
       </c>
       <c r="H279" t="s" s="2">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="I279" t="s" s="2">
         <v>72</v>
@@ -36700,13 +36723,13 @@
         <v>72</v>
       </c>
       <c r="L279" t="s" s="2">
-        <v>75</v>
+        <v>179</v>
       </c>
       <c r="M279" t="s" s="2">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="N279" t="s" s="2">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="O279" s="2"/>
       <c r="P279" s="2"/>
@@ -36757,13 +36780,13 @@
         <v>72</v>
       </c>
       <c r="AG279" t="s" s="2">
-        <v>76</v>
+        <v>663</v>
       </c>
       <c r="AH279" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI279" t="s" s="2">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="AJ279" t="s" s="2">
         <v>72</v>
@@ -36774,13 +36797,13 @@
     </row>
     <row r="280">
       <c r="A280" t="s" s="2">
-        <v>661</v>
+        <v>645</v>
       </c>
       <c r="B280" t="s" s="2">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="C280" t="s" s="2">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="D280" s="2"/>
       <c r="E280" t="s" s="2">
@@ -36803,13 +36826,13 @@
         <v>72</v>
       </c>
       <c r="L280" t="s" s="2">
-        <v>92</v>
+        <v>165</v>
       </c>
       <c r="M280" t="s" s="2">
-        <v>198</v>
+        <v>666</v>
       </c>
       <c r="N280" t="s" s="2">
-        <v>198</v>
+        <v>666</v>
       </c>
       <c r="O280" s="2"/>
       <c r="P280" s="2"/>
@@ -36836,11 +36859,13 @@
         <v>72</v>
       </c>
       <c r="Y280" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="Z280" s="2"/>
+        <v>72</v>
+      </c>
+      <c r="Z280" t="s" s="2">
+        <v>72</v>
+      </c>
       <c r="AA280" t="s" s="2">
-        <v>199</v>
+        <v>72</v>
       </c>
       <c r="AB280" t="s" s="2">
         <v>72</v>
@@ -36858,7 +36883,7 @@
         <v>72</v>
       </c>
       <c r="AG280" t="s" s="2">
-        <v>200</v>
+        <v>665</v>
       </c>
       <c r="AH280" t="s" s="2">
         <v>73</v>
@@ -36875,13 +36900,13 @@
     </row>
     <row r="281">
       <c r="A281" t="s" s="2">
-        <v>661</v>
+        <v>645</v>
       </c>
       <c r="B281" t="s" s="2">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="C281" t="s" s="2">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="D281" s="2"/>
       <c r="E281" t="s" s="2">
@@ -36889,7 +36914,7 @@
       </c>
       <c r="F281" s="2"/>
       <c r="G281" t="s" s="2">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="H281" t="s" s="2">
         <v>78</v>
@@ -36904,13 +36929,13 @@
         <v>72</v>
       </c>
       <c r="L281" t="s" s="2">
-        <v>142</v>
+        <v>643</v>
       </c>
       <c r="M281" t="s" s="2">
-        <v>202</v>
+        <v>644</v>
       </c>
       <c r="N281" t="s" s="2">
-        <v>202</v>
+        <v>644</v>
       </c>
       <c r="O281" s="2"/>
       <c r="P281" s="2"/>
@@ -36961,10 +36986,10 @@
         <v>72</v>
       </c>
       <c r="AG281" t="s" s="2">
-        <v>203</v>
+        <v>667</v>
       </c>
       <c r="AH281" t="s" s="2">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="AI281" t="s" s="2">
         <v>78</v>
@@ -36978,13 +37003,13 @@
     </row>
     <row r="282">
       <c r="A282" t="s" s="2">
-        <v>661</v>
+        <v>668</v>
       </c>
       <c r="B282" t="s" s="2">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="C282" t="s" s="2">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="D282" s="2"/>
       <c r="E282" t="s" s="2">
@@ -36995,7 +37020,7 @@
         <v>73</v>
       </c>
       <c r="H282" t="s" s="2">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="I282" t="s" s="2">
         <v>72</v>
@@ -37007,13 +37032,13 @@
         <v>72</v>
       </c>
       <c r="L282" t="s" s="2">
-        <v>142</v>
+        <v>75</v>
       </c>
       <c r="M282" t="s" s="2">
-        <v>205</v>
+        <v>670</v>
       </c>
       <c r="N282" t="s" s="2">
-        <v>205</v>
+        <v>670</v>
       </c>
       <c r="O282" s="2"/>
       <c r="P282" s="2"/>
@@ -37064,13 +37089,13 @@
         <v>72</v>
       </c>
       <c r="AG282" t="s" s="2">
-        <v>206</v>
+        <v>76</v>
       </c>
       <c r="AH282" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI282" t="s" s="2">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="AJ282" t="s" s="2">
         <v>72</v>
@@ -37081,13 +37106,13 @@
     </row>
     <row r="283">
       <c r="A283" t="s" s="2">
-        <v>661</v>
+        <v>668</v>
       </c>
       <c r="B283" t="s" s="2">
-        <v>667</v>
+        <v>671</v>
       </c>
       <c r="C283" t="s" s="2">
-        <v>667</v>
+        <v>671</v>
       </c>
       <c r="D283" s="2"/>
       <c r="E283" t="s" s="2">
@@ -37113,10 +37138,10 @@
         <v>92</v>
       </c>
       <c r="M283" t="s" s="2">
-        <v>668</v>
+        <v>198</v>
       </c>
       <c r="N283" t="s" s="2">
-        <v>668</v>
+        <v>198</v>
       </c>
       <c r="O283" s="2"/>
       <c r="P283" s="2"/>
@@ -37147,7 +37172,7 @@
       </c>
       <c r="Z283" s="2"/>
       <c r="AA283" t="s" s="2">
-        <v>669</v>
+        <v>199</v>
       </c>
       <c r="AB283" t="s" s="2">
         <v>72</v>
@@ -37165,7 +37190,7 @@
         <v>72</v>
       </c>
       <c r="AG283" t="s" s="2">
-        <v>667</v>
+        <v>200</v>
       </c>
       <c r="AH283" t="s" s="2">
         <v>73</v>
@@ -37182,13 +37207,13 @@
     </row>
     <row r="284">
       <c r="A284" t="s" s="2">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="B284" t="s" s="2">
-        <v>670</v>
+        <v>672</v>
       </c>
       <c r="C284" t="s" s="2">
-        <v>670</v>
+        <v>672</v>
       </c>
       <c r="D284" s="2"/>
       <c r="E284" t="s" s="2">
@@ -37199,7 +37224,7 @@
         <v>73</v>
       </c>
       <c r="H284" t="s" s="2">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="I284" t="s" s="2">
         <v>72</v>
@@ -37211,13 +37236,13 @@
         <v>72</v>
       </c>
       <c r="L284" t="s" s="2">
-        <v>75</v>
+        <v>142</v>
       </c>
       <c r="M284" t="s" s="2">
-        <v>672</v>
+        <v>202</v>
       </c>
       <c r="N284" t="s" s="2">
-        <v>672</v>
+        <v>202</v>
       </c>
       <c r="O284" s="2"/>
       <c r="P284" s="2"/>
@@ -37268,13 +37293,13 @@
         <v>72</v>
       </c>
       <c r="AG284" t="s" s="2">
-        <v>76</v>
+        <v>203</v>
       </c>
       <c r="AH284" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI284" t="s" s="2">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="AJ284" t="s" s="2">
         <v>72</v>
@@ -37285,7 +37310,7 @@
     </row>
     <row r="285">
       <c r="A285" t="s" s="2">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="B285" t="s" s="2">
         <v>673</v>
@@ -37314,13 +37339,13 @@
         <v>72</v>
       </c>
       <c r="L285" t="s" s="2">
-        <v>92</v>
+        <v>142</v>
       </c>
       <c r="M285" t="s" s="2">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="N285" t="s" s="2">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="O285" s="2"/>
       <c r="P285" s="2"/>
@@ -37347,11 +37372,13 @@
         <v>72</v>
       </c>
       <c r="Y285" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="Z285" s="2"/>
+        <v>72</v>
+      </c>
+      <c r="Z285" t="s" s="2">
+        <v>72</v>
+      </c>
       <c r="AA285" t="s" s="2">
-        <v>199</v>
+        <v>72</v>
       </c>
       <c r="AB285" t="s" s="2">
         <v>72</v>
@@ -37369,7 +37396,7 @@
         <v>72</v>
       </c>
       <c r="AG285" t="s" s="2">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="AH285" t="s" s="2">
         <v>73</v>
@@ -37386,7 +37413,7 @@
     </row>
     <row r="286">
       <c r="A286" t="s" s="2">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="B286" t="s" s="2">
         <v>674</v>
@@ -37415,13 +37442,13 @@
         <v>72</v>
       </c>
       <c r="L286" t="s" s="2">
-        <v>142</v>
+        <v>92</v>
       </c>
       <c r="M286" t="s" s="2">
-        <v>202</v>
+        <v>675</v>
       </c>
       <c r="N286" t="s" s="2">
-        <v>202</v>
+        <v>675</v>
       </c>
       <c r="O286" s="2"/>
       <c r="P286" s="2"/>
@@ -37448,13 +37475,11 @@
         <v>72</v>
       </c>
       <c r="Y286" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Z286" t="s" s="2">
-        <v>72</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="Z286" s="2"/>
       <c r="AA286" t="s" s="2">
-        <v>72</v>
+        <v>676</v>
       </c>
       <c r="AB286" t="s" s="2">
         <v>72</v>
@@ -37472,7 +37497,7 @@
         <v>72</v>
       </c>
       <c r="AG286" t="s" s="2">
-        <v>203</v>
+        <v>674</v>
       </c>
       <c r="AH286" t="s" s="2">
         <v>73</v>
@@ -37489,13 +37514,13 @@
     </row>
     <row r="287">
       <c r="A287" t="s" s="2">
-        <v>670</v>
+        <v>677</v>
       </c>
       <c r="B287" t="s" s="2">
-        <v>675</v>
+        <v>677</v>
       </c>
       <c r="C287" t="s" s="2">
-        <v>675</v>
+        <v>677</v>
       </c>
       <c r="D287" s="2"/>
       <c r="E287" t="s" s="2">
@@ -37506,7 +37531,7 @@
         <v>73</v>
       </c>
       <c r="H287" t="s" s="2">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="I287" t="s" s="2">
         <v>72</v>
@@ -37518,13 +37543,13 @@
         <v>72</v>
       </c>
       <c r="L287" t="s" s="2">
-        <v>142</v>
+        <v>75</v>
       </c>
       <c r="M287" t="s" s="2">
-        <v>205</v>
+        <v>679</v>
       </c>
       <c r="N287" t="s" s="2">
-        <v>205</v>
+        <v>679</v>
       </c>
       <c r="O287" s="2"/>
       <c r="P287" s="2"/>
@@ -37575,13 +37600,13 @@
         <v>72</v>
       </c>
       <c r="AG287" t="s" s="2">
-        <v>206</v>
+        <v>76</v>
       </c>
       <c r="AH287" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI287" t="s" s="2">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="AJ287" t="s" s="2">
         <v>72</v>
@@ -37592,13 +37617,13 @@
     </row>
     <row r="288">
       <c r="A288" t="s" s="2">
-        <v>670</v>
+        <v>677</v>
       </c>
       <c r="B288" t="s" s="2">
-        <v>676</v>
+        <v>680</v>
       </c>
       <c r="C288" t="s" s="2">
-        <v>676</v>
+        <v>680</v>
       </c>
       <c r="D288" s="2"/>
       <c r="E288" t="s" s="2">
@@ -37624,10 +37649,10 @@
         <v>92</v>
       </c>
       <c r="M288" t="s" s="2">
-        <v>677</v>
+        <v>198</v>
       </c>
       <c r="N288" t="s" s="2">
-        <v>677</v>
+        <v>198</v>
       </c>
       <c r="O288" s="2"/>
       <c r="P288" s="2"/>
@@ -37658,7 +37683,7 @@
       </c>
       <c r="Z288" s="2"/>
       <c r="AA288" t="s" s="2">
-        <v>678</v>
+        <v>199</v>
       </c>
       <c r="AB288" t="s" s="2">
         <v>72</v>
@@ -37676,7 +37701,7 @@
         <v>72</v>
       </c>
       <c r="AG288" t="s" s="2">
-        <v>676</v>
+        <v>200</v>
       </c>
       <c r="AH288" t="s" s="2">
         <v>73</v>
@@ -37693,13 +37718,13 @@
     </row>
     <row r="289">
       <c r="A289" t="s" s="2">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="B289" t="s" s="2">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="C289" t="s" s="2">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="D289" s="2"/>
       <c r="E289" t="s" s="2">
@@ -37710,7 +37735,7 @@
         <v>73</v>
       </c>
       <c r="H289" t="s" s="2">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="I289" t="s" s="2">
         <v>72</v>
@@ -37722,13 +37747,13 @@
         <v>72</v>
       </c>
       <c r="L289" t="s" s="2">
-        <v>75</v>
+        <v>142</v>
       </c>
       <c r="M289" t="s" s="2">
-        <v>681</v>
+        <v>202</v>
       </c>
       <c r="N289" t="s" s="2">
-        <v>681</v>
+        <v>202</v>
       </c>
       <c r="O289" s="2"/>
       <c r="P289" s="2"/>
@@ -37779,13 +37804,13 @@
         <v>72</v>
       </c>
       <c r="AG289" t="s" s="2">
-        <v>76</v>
+        <v>203</v>
       </c>
       <c r="AH289" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI289" t="s" s="2">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="AJ289" t="s" s="2">
         <v>72</v>
@@ -37796,7 +37821,7 @@
     </row>
     <row r="290">
       <c r="A290" t="s" s="2">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="B290" t="s" s="2">
         <v>682</v>
@@ -37825,13 +37850,13 @@
         <v>72</v>
       </c>
       <c r="L290" t="s" s="2">
-        <v>92</v>
+        <v>142</v>
       </c>
       <c r="M290" t="s" s="2">
-        <v>683</v>
+        <v>205</v>
       </c>
       <c r="N290" t="s" s="2">
-        <v>683</v>
+        <v>205</v>
       </c>
       <c r="O290" s="2"/>
       <c r="P290" s="2"/>
@@ -37858,11 +37883,13 @@
         <v>72</v>
       </c>
       <c r="Y290" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="Z290" s="2"/>
+        <v>72</v>
+      </c>
+      <c r="Z290" t="s" s="2">
+        <v>72</v>
+      </c>
       <c r="AA290" t="s" s="2">
-        <v>684</v>
+        <v>72</v>
       </c>
       <c r="AB290" t="s" s="2">
         <v>72</v>
@@ -37880,7 +37907,7 @@
         <v>72</v>
       </c>
       <c r="AG290" t="s" s="2">
-        <v>682</v>
+        <v>206</v>
       </c>
       <c r="AH290" t="s" s="2">
         <v>73</v>
@@ -37897,13 +37924,13 @@
     </row>
     <row r="291">
       <c r="A291" t="s" s="2">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="B291" t="s" s="2">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="C291" t="s" s="2">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="D291" s="2"/>
       <c r="E291" t="s" s="2">
@@ -37926,13 +37953,13 @@
         <v>72</v>
       </c>
       <c r="L291" t="s" s="2">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="M291" t="s" s="2">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="N291" t="s" s="2">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="O291" s="2"/>
       <c r="P291" s="2"/>
@@ -37959,13 +37986,11 @@
         <v>72</v>
       </c>
       <c r="Y291" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Z291" t="s" s="2">
-        <v>72</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="Z291" s="2"/>
       <c r="AA291" t="s" s="2">
-        <v>72</v>
+        <v>685</v>
       </c>
       <c r="AB291" t="s" s="2">
         <v>72</v>
@@ -37983,7 +38008,7 @@
         <v>72</v>
       </c>
       <c r="AG291" t="s" s="2">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="AH291" t="s" s="2">
         <v>73</v>
@@ -38000,13 +38025,13 @@
     </row>
     <row r="292">
       <c r="A292" t="s" s="2">
-        <v>679</v>
+        <v>686</v>
       </c>
       <c r="B292" t="s" s="2">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="C292" t="s" s="2">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="D292" s="2"/>
       <c r="E292" t="s" s="2">
@@ -38017,7 +38042,7 @@
         <v>73</v>
       </c>
       <c r="H292" t="s" s="2">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="I292" t="s" s="2">
         <v>72</v>
@@ -38029,7 +38054,7 @@
         <v>72</v>
       </c>
       <c r="L292" t="s" s="2">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="M292" t="s" s="2">
         <v>688</v>
@@ -38062,11 +38087,13 @@
         <v>72</v>
       </c>
       <c r="Y292" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="Z292" s="2"/>
+        <v>72</v>
+      </c>
+      <c r="Z292" t="s" s="2">
+        <v>72</v>
+      </c>
       <c r="AA292" t="s" s="2">
-        <v>689</v>
+        <v>72</v>
       </c>
       <c r="AB292" t="s" s="2">
         <v>72</v>
@@ -38084,13 +38111,13 @@
         <v>72</v>
       </c>
       <c r="AG292" t="s" s="2">
-        <v>687</v>
+        <v>76</v>
       </c>
       <c r="AH292" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI292" t="s" s="2">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="AJ292" t="s" s="2">
         <v>72</v>
@@ -38101,13 +38128,13 @@
     </row>
     <row r="293">
       <c r="A293" t="s" s="2">
-        <v>679</v>
+        <v>686</v>
       </c>
       <c r="B293" t="s" s="2">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="C293" t="s" s="2">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="D293" s="2"/>
       <c r="E293" t="s" s="2">
@@ -38130,13 +38157,13 @@
         <v>72</v>
       </c>
       <c r="L293" t="s" s="2">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="M293" t="s" s="2">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="N293" t="s" s="2">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="O293" s="2"/>
       <c r="P293" s="2"/>
@@ -38163,13 +38190,11 @@
         <v>72</v>
       </c>
       <c r="Y293" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Z293" t="s" s="2">
-        <v>72</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="Z293" s="2"/>
       <c r="AA293" t="s" s="2">
-        <v>72</v>
+        <v>691</v>
       </c>
       <c r="AB293" t="s" s="2">
         <v>72</v>
@@ -38187,7 +38212,7 @@
         <v>72</v>
       </c>
       <c r="AG293" t="s" s="2">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="AH293" t="s" s="2">
         <v>73</v>
@@ -38204,7 +38229,7 @@
     </row>
     <row r="294">
       <c r="A294" t="s" s="2">
-        <v>679</v>
+        <v>686</v>
       </c>
       <c r="B294" t="s" s="2">
         <v>692</v>
@@ -38233,7 +38258,7 @@
         <v>72</v>
       </c>
       <c r="L294" t="s" s="2">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="M294" t="s" s="2">
         <v>693</v>
@@ -38266,11 +38291,13 @@
         <v>72</v>
       </c>
       <c r="Y294" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="Z294" s="2"/>
+        <v>72</v>
+      </c>
+      <c r="Z294" t="s" s="2">
+        <v>72</v>
+      </c>
       <c r="AA294" t="s" s="2">
-        <v>694</v>
+        <v>72</v>
       </c>
       <c r="AB294" t="s" s="2">
         <v>72</v>
@@ -38300,6 +38327,311 @@
         <v>72</v>
       </c>
       <c r="AK294" t="s" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="s" s="2">
+        <v>686</v>
+      </c>
+      <c r="B295" t="s" s="2">
+        <v>694</v>
+      </c>
+      <c r="C295" t="s" s="2">
+        <v>694</v>
+      </c>
+      <c r="D295" s="2"/>
+      <c r="E295" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="F295" s="2"/>
+      <c r="G295" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H295" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I295" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J295" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="K295" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="L295" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="M295" t="s" s="2">
+        <v>695</v>
+      </c>
+      <c r="N295" t="s" s="2">
+        <v>695</v>
+      </c>
+      <c r="O295" s="2"/>
+      <c r="P295" s="2"/>
+      <c r="Q295" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="R295" s="2"/>
+      <c r="S295" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T295" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U295" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V295" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W295" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X295" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y295" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="Z295" s="2"/>
+      <c r="AA295" t="s" s="2">
+        <v>696</v>
+      </c>
+      <c r="AB295" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC295" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD295" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE295" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AF295" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG295" t="s" s="2">
+        <v>694</v>
+      </c>
+      <c r="AH295" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI295" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ295" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AK295" t="s" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="s" s="2">
+        <v>686</v>
+      </c>
+      <c r="B296" t="s" s="2">
+        <v>697</v>
+      </c>
+      <c r="C296" t="s" s="2">
+        <v>697</v>
+      </c>
+      <c r="D296" s="2"/>
+      <c r="E296" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="F296" s="2"/>
+      <c r="G296" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H296" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I296" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J296" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="K296" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="L296" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="M296" t="s" s="2">
+        <v>698</v>
+      </c>
+      <c r="N296" t="s" s="2">
+        <v>698</v>
+      </c>
+      <c r="O296" s="2"/>
+      <c r="P296" s="2"/>
+      <c r="Q296" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="R296" s="2"/>
+      <c r="S296" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T296" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U296" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V296" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W296" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X296" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y296" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z296" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA296" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB296" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC296" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD296" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE296" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AF296" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG296" t="s" s="2">
+        <v>697</v>
+      </c>
+      <c r="AH296" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI296" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ296" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AK296" t="s" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="s" s="2">
+        <v>686</v>
+      </c>
+      <c r="B297" t="s" s="2">
+        <v>699</v>
+      </c>
+      <c r="C297" t="s" s="2">
+        <v>699</v>
+      </c>
+      <c r="D297" s="2"/>
+      <c r="E297" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="F297" s="2"/>
+      <c r="G297" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H297" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I297" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J297" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="K297" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="L297" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="M297" t="s" s="2">
+        <v>700</v>
+      </c>
+      <c r="N297" t="s" s="2">
+        <v>700</v>
+      </c>
+      <c r="O297" s="2"/>
+      <c r="P297" s="2"/>
+      <c r="Q297" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="R297" s="2"/>
+      <c r="S297" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T297" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U297" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V297" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W297" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X297" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y297" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="Z297" s="2"/>
+      <c r="AA297" t="s" s="2">
+        <v>701</v>
+      </c>
+      <c r="AB297" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC297" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD297" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE297" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AF297" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG297" t="s" s="2">
+        <v>699</v>
+      </c>
+      <c r="AH297" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI297" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ297" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AK297" t="s" s="2">
         <v>72</v>
       </c>
     </row>
